--- a/data/banks.xlsx
+++ b/data/banks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
         <v>24.13</v>
@@ -806,29 +806,31 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>БыстроБанк</t>
+          <t>Свой Банк</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>22.89</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>181 – 191 дня</t>
+          <t>91 – 1095 дней</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>100000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30000000</v>
+      </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23</v>
+        <v>22.89</v>
       </c>
     </row>
     <row r="13">
@@ -837,18 +839,18 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Примсоцбанк</t>
+          <t>БыстроБанк</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>212 дней</t>
+          <t>91 – 191 дня</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="14">
@@ -868,29 +870,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Интерпрогрессбанк</t>
+          <t>Примсоцбанк</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.16</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>367 дней</t>
+          <t>212 дней</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>22.16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -899,18 +901,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Сбербанк</t>
+          <t>Интерпрогрессбанк</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>22.16</v>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1 – 36 месяцев</t>
+          <t>367 дней</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -921,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>21</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="16">
@@ -930,31 +932,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Альфа-Банк</t>
+          <t>Сбербанк</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>от 1 дня</t>
+          <t>1 – 36 месяцев</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1500000</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -963,14 +963,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Газпромбанк</t>
+          <t>Альфа-Банк</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -996,29 +996,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Банк ДОМ.РФ</t>
+          <t>Газпромбанк</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.3</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>22.8</v>
+        <v>19</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>91 – 1100 дней</t>
+          <t>от 1 дня</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1500000</v>
+      </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -1027,29 +1029,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Кредит Европа Банк (Россия)</t>
+          <t>Банк ДОМ.РФ</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>23.7</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>91 – 730 дней</t>
+          <t>91 – 1100 дней</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>21</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="20">
@@ -1058,18 +1060,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Сбербанк</t>
+          <t>Кредит Европа Банк (Россия)</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19.95</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>19.95</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1 – 36 месяцев</t>
+          <t>91 – 730 дней</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1077,10 +1079,10 @@
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>19.95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -1093,14 +1095,14 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>19.95</v>
       </c>
       <c r="D21" t="n">
-        <v>17.5</v>
+        <v>19.95</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1 мес. - 3 лет</t>
+          <t>1 – 36 месяцев</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="22">
@@ -1124,10 +1126,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17.95</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>16.45</v>
+        <v>17.5</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>17.95</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -1155,27 +1157,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>17.95</v>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>16.45</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>от 1 дня</t>
+          <t>1 мес. - 3 лет</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>10000000</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>16</v>
+        <v>17.95</v>
       </c>
     </row>
     <row r="24">
@@ -1188,25 +1188,27 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1 мес. - 3 лет</t>
+          <t>от 1 дня</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10000000</v>
+      </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -1215,29 +1217,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Азиатско-Тихоокеанский Банк</t>
+          <t>Сбербанк</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22.74</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>367 дней</t>
+          <t>1 мес. - 3 лет</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>22.74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1250,25 +1252,27 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>250 дней</t>
+          <t>91 – 367 дней</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
+        <v>50000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>50000</v>
+      </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I26" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -1277,29 +1281,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ренессанс Банк</t>
+          <t>Азиатско-Тихоокеанский Банк</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.5</v>
+        <v>22.74</v>
       </c>
       <c r="D27" t="n">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>91 – 1080 дней</t>
+          <t>367 дней</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I27" t="n">
-        <v>23.5</v>
+        <v>22.74</v>
       </c>
     </row>
     <row r="28">
@@ -1308,31 +1312,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Газпромбанк</t>
+          <t>Ренессанс Банк</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="D28" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>91 – 1095 дней</t>
+          <t>61 – 1080 дней</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>300000</v>
-      </c>
-      <c r="G28" t="n">
-        <v>10000000</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="29">
@@ -1341,31 +1343,31 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Московский Кредитный Банк</t>
+          <t>Банк ДОМ.РФ</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23</v>
+        <v>23.4</v>
       </c>
       <c r="D29" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>95 – 1100 дней</t>
+          <t>91 – 1100 дней</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="G29" t="n">
-        <v>5000000</v>
+        <v>15000000</v>
       </c>
       <c r="H29" t="n">
         <v>7</v>
       </c>
       <c r="I29" t="n">
-        <v>23</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="30">
@@ -1374,31 +1376,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Банк ДОМ.РФ</t>
+          <t>Совкомбанк</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D30" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>91 – 1100 дней</t>
+          <t>90 – 1095 дней</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G30" t="n">
-        <v>15000000</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="31">
@@ -1407,29 +1407,31 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Совкомбанк</t>
+          <t>Газпромбанк</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>22.1</v>
+        <v>23</v>
       </c>
       <c r="D31" t="n">
-        <v>22.1</v>
+        <v>23</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>90 – 1095 дней</t>
+          <t>91 – 1095 дней</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
+        <v>300000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>10000000</v>
+      </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>22.1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
@@ -1438,29 +1440,31 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Банк Уралсиб</t>
+          <t>Московский Кредитный Банк</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>21.86</v>
+        <v>23</v>
       </c>
       <c r="D32" t="n">
-        <v>24.98</v>
+        <v>23</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>91 – 1100 дней</t>
+          <t>95 – 1100 дней</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>100000</v>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>5000000</v>
+      </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I32" t="n">
-        <v>24.98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
@@ -1469,29 +1473,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Камкомбанк</t>
+          <t>Банк Уралсиб</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>21.5</v>
+        <v>22.02</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>24.98</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>186 – 280 дней</t>
+          <t>91 – 1100 дней</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>21.5</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="34">
@@ -1500,31 +1504,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ак Барс Банк</t>
+          <t>Камкомбанк</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20.75</v>
+        <v>21.5</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>181 день</t>
+          <t>186 – 280 дней</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G34" t="n">
-        <v>100000</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
         <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>20.75</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="35">
@@ -1533,29 +1535,31 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>МТС Банк</t>
+          <t>Ак Барс Банк</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20.3</v>
+        <v>20.75</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>120 – 367 дней</t>
+          <t>181 день</t>
         </is>
       </c>
       <c r="F35" t="n">
         <v>10000</v>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>100000</v>
+      </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>20.3</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="36">
@@ -1564,29 +1568,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Центр-инвест</t>
+          <t>МТС Банк</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8.880000000000001</v>
+        <v>20.3</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1095 дней</t>
+          <t>120 – 367 дней</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>30000000</v>
+        <v>10000</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>8.880000000000001</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="37">
@@ -1595,31 +1599,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Цифра банк</t>
+          <t>Центр-инвест</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>20</v>
+        <v>9.09</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>730 дней</t>
+          <t>1095 дней</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G37" t="n">
-        <v>15000000</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
         <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>20</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="38">
@@ -1628,29 +1630,31 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Альфа-Банк</t>
+          <t>Цифра банк</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>19.68</v>
+        <v>20</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>123 – 1095 дней</t>
+          <t>730 дней</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
+        <v>100000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>15000000</v>
+      </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>19.68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -1659,29 +1663,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ингосстрах Банк</t>
+          <t>Альфа-Банк</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>19</v>
+        <v>19.68</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>93 – 367 дней</t>
+          <t>123 – 1095 дней</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1400000</v>
+        <v>10000</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>19</v>
+        <v>19.68</v>
       </c>
     </row>
     <row r="40">
@@ -1690,29 +1694,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ВТБ</t>
+          <t>Ингосстрах Банк</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>17.37</v>
+        <v>19</v>
       </c>
       <c r="D40" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>181 день</t>
+          <t>93 – 367 дней</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>30000</v>
+        <v>1400000</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -1721,29 +1725,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Т-Банк</t>
+          <t>ВТБ</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>17.37</v>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>от 1 дня</t>
+          <t>181 день</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>30000</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I41" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -1752,29 +1756,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Транскапиталбанк</t>
+          <t>Т-Банк</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>22.28</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>400 дней</t>
+          <t>от 1 дня</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100000</v>
+        <v>1</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>22.28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -1783,7 +1787,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Инвестторгбанк</t>
+          <t>Транскапиталбанк</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1802,7 +1806,7 @@
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I43" t="n">
         <v>22.28</v>
@@ -1814,29 +1818,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Металлинвестбанк</t>
+          <t>Абсолют Банк</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>19.99</v>
+        <v>20.06</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>367 дней</t>
+          <t>360 дней</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
         <v>7</v>
       </c>
       <c r="I44" t="n">
-        <v>19.99</v>
+        <v>20.06</v>
       </c>
     </row>
     <row r="45">
@@ -1845,31 +1849,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Абсолют Банк</t>
+          <t>Инвестторгбанк</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>24</v>
+        <v>22.28</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>92 – 368 дней</t>
+          <t>400 дней</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G45" t="n">
-        <v>5000000</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>24</v>
+        <v>22.28</v>
       </c>
     </row>
     <row r="46">
@@ -1878,31 +1880,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Локо-Банк</t>
+          <t>Гарант-инвест</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>22.25</v>
+        <v>25</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>370 дней</t>
+          <t>181 – 370 дней</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G46" t="n">
-        <v>50000000</v>
-      </c>
+        <v>1000000</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I46" t="n">
-        <v>22.25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
@@ -1911,29 +1911,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Примсоцбанк</t>
+          <t>Металлинвестбанк</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>23.8</v>
+        <v>19.99</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>122 дня</t>
+          <t>367 дней</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I47" t="n">
-        <v>23.8</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="48">
@@ -1942,29 +1942,31 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Международный финансовый клуб</t>
+          <t>БыстроБанк</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>23.8</v>
+        <v>24.5</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3 – 24 месяцев</t>
+          <t>1830 – 1840 дней</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+        <v>10000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5000000</v>
+      </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I48" t="n">
-        <v>23.8</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="49">
@@ -1973,31 +1975,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Реалист Банк</t>
+          <t>Кошелев-Банк</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>23.5</v>
+        <v>7.07</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>185 – 731 дня</t>
+          <t>2200 дней</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="G49" t="n">
-        <v>500000000</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I49" t="n">
-        <v>23.5</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="50">
@@ -2006,18 +2006,18 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Таврический</t>
+          <t>Клюква</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>23.1</v>
+        <v>20.98</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>91 – 1095 дней</t>
+          <t>181 день</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2025,10 +2025,10 @@
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
-        <v>23.1</v>
+        <v>20.98</v>
       </c>
     </row>
     <row r="51">
@@ -2037,29 +2037,31 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Мир Бизнес Банк</t>
+          <t>Банк «Санкт-Петербург»</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>31 – 181 дня</t>
+          <t>91 – 181 дня</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
+        <v>10000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>500000</v>
+      </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I51" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52">
@@ -2068,29 +2070,31 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Промтрансбанк</t>
+          <t>Локо-Банк</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>10.86</v>
+        <v>22.25</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>750 дней</t>
+          <t>370 дней</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
+        <v>100000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>50000000</v>
+      </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I52" t="n">
-        <v>10.86</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="53">
@@ -2099,29 +2103,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Гарант-инвест</t>
+          <t>Таврический</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>23</v>
+        <v>23.9</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>181 – 370 дней</t>
+          <t>91 – 1095 дней</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3000000</v>
+        <v>50000</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I53" t="n">
-        <v>23</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="54">
@@ -2130,31 +2134,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>НС Банк</t>
+          <t>Примсоцбанк</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>23</v>
+        <v>23.8</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>100 – 200 дней</t>
+          <t>122 дня</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G54" t="n">
-        <v>5000000</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I54" t="n">
-        <v>23</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="55">
@@ -2163,29 +2165,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Кошелев-Банк</t>
+          <t>Международный финансовый клуб</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>14.09</v>
+        <v>23.8</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2200 дней</t>
+          <t>3 – 24 месяцев</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>14.09</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="56">
@@ -2194,29 +2196,31 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Русский стандарт</t>
+          <t>Реалист Банк</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>19.11</v>
+        <v>23.5</v>
       </c>
       <c r="D56" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>275 дней</t>
+          <t>185 – 731 дня</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
+        <v>5000000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>500000000</v>
+      </c>
       <c r="H56" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I56" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="57">
@@ -2225,29 +2229,31 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Белгородсоцбанк</t>
+          <t>Александровский</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>181 день</t>
+          <t>91 – 735 дней</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
+        <v>5000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>100000000</v>
+      </c>
       <c r="H57" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I57" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="58">
@@ -2256,7 +2262,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Банк ВБРР</t>
+          <t>Мир Бизнес Банк</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2267,15 +2273,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>31 – 1096 дней</t>
+          <t>31 – 181 дня</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>10000000</v>
+        <v>100000</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
         <v>23</v>
@@ -2287,31 +2293,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Банк «Санкт-Петербург»</t>
+          <t>Промтрансбанк</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>23</v>
+        <v>10.86</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>91 – 181 дня</t>
+          <t>750 дней</t>
         </is>
       </c>
       <c r="F59" t="n">
         <v>10000</v>
       </c>
-      <c r="G59" t="n">
-        <v>500000</v>
-      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>23</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="60">
@@ -2320,7 +2324,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ОЗОН Банк</t>
+          <t>НС Банк</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2331,15 +2335,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>от 1 дня</t>
+          <t>100 – 200 дней</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
+        <v>50000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5000000</v>
+      </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I60" t="n">
         <v>23</v>
@@ -2351,28 +2357,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Почта Банк</t>
+          <t>Русский стандарт</t>
         </is>
       </c>
       <c r="C61" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="D61" t="n">
         <v>23</v>
       </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>91 – 275 дней</t>
+          <t>275 дней</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1500000</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I61" t="n">
         <v>23</v>
@@ -2384,7 +2388,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Александровский</t>
+          <t>Белгородсоцбанк</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2395,17 +2399,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>91 – 735 дней</t>
+          <t>181 день</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G62" t="n">
-        <v>100000000</v>
-      </c>
+        <v>1000000</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I62" t="n">
         <v>23</v>
@@ -2417,26 +2419,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Россельхозбанк</t>
+          <t>Банк ВБРР</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>23</v>
       </c>
       <c r="D63" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>180 – 1095 дней</t>
+          <t>31 – 1096 дней</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I63" t="n">
         <v>23</v>
@@ -2448,31 +2450,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Экспобанк</t>
+          <t>ОЗОН Банк</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>22.51</v>
+        <v>23</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>181 день</t>
+          <t>от 1 дня</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="G64" t="n">
-        <v>100000000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>22.51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -2481,29 +2481,31 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Банк Глобус</t>
+          <t>Почта Банк</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>61 – 181 дня</t>
+          <t>91 – 275 дней</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G65" t="inlineStr"/>
+        <v>10000</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1500000</v>
+      </c>
       <c r="H65" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>22.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
@@ -2512,31 +2514,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ББР Банк</t>
+          <t>Россельхозбанк</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>730 – 1100 дней</t>
+          <t>180 – 1095 дней</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G66" t="n">
-        <v>50000000</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I66" t="n">
-        <v>22.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
@@ -2545,29 +2545,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Приморье</t>
+          <t>Финстар Банк</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>22.5</v>
+        <v>14.43</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>31 – 1095 дней</t>
+          <t>730 дней</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>22.5</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="68">
@@ -2576,29 +2576,31 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Морской Банк</t>
+          <t>Экспобанк</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>22.5</v>
+        <v>22.51</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>91 – 367 дней</t>
+          <t>181 день</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G68" t="inlineStr"/>
+        <v>3000000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>100000000</v>
+      </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I68" t="n">
-        <v>22.5</v>
+        <v>22.51</v>
       </c>
     </row>
     <row r="69">
@@ -2607,7 +2609,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Первый Инвестиционный Банк</t>
+          <t>Банк Глобус</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2618,15 +2620,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>270 – 365 дней</t>
+          <t>61 – 181 дня</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I69" t="n">
         <v>22.5</v>
@@ -2638,7 +2640,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Банк Синара</t>
+          <t>ББР Банк</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2649,17 +2651,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>90 – 1080 дней</t>
+          <t>730 – 1100 дней</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G70" t="n">
-        <v>30000000</v>
+        <v>50000000</v>
       </c>
       <c r="H70" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I70" t="n">
         <v>22.5</v>
@@ -2671,7 +2673,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Газэнергобанк</t>
+          <t>Приморье</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2682,17 +2684,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>90 – 1080 дней</t>
+          <t>31 – 1095 дней</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G71" t="n">
-        <v>30000000</v>
-      </c>
+        <v>1000000</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I71" t="n">
         <v>22.5</v>
@@ -2704,29 +2704,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>КБ Солидарность</t>
+          <t>Морской Банк</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>210 дней</t>
+          <t>91 – 367 дней</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="73">
@@ -2735,29 +2735,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Кубань Кредит</t>
+          <t>Первый Инвестиционный Банк</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>22.22</v>
+        <v>22.5</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>181 день</t>
+          <t>270 – 365 дней</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>5000</v>
+        <v>5000000</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
-        <v>22.22</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="74">
@@ -2766,29 +2766,31 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Банк БЖФ</t>
+          <t>Банк Синара</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>8.960000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>550 дней</t>
+          <t>90 – 1080 дней</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G74" t="inlineStr"/>
+        <v>10000</v>
+      </c>
+      <c r="G74" t="n">
+        <v>30000000</v>
+      </c>
       <c r="H74" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I74" t="n">
-        <v>8.960000000000001</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="75">
@@ -2797,29 +2799,31 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>БыстроБанк</t>
+          <t>Газэнергобанк</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>17.73</v>
+        <v>22.5</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1900 дней</t>
+          <t>90 – 1080 дней</t>
         </is>
       </c>
       <c r="F75" t="n">
         <v>10000</v>
       </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>30000000</v>
+      </c>
       <c r="H75" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I75" t="n">
-        <v>17.73</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="76">
@@ -2828,29 +2832,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Еврофинанс Моснарбанк</t>
+          <t>КБ Солидарность</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1 – 12 месяцев</t>
+          <t>210 дней</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I76" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="77">
@@ -2859,29 +2863,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Живаго Банк</t>
+          <t>Кубань Кредит</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>19.22</v>
+        <v>22.22</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>279 дней</t>
+          <t>181 день</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
         <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>19.22</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="78">
@@ -2890,29 +2894,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Клюква</t>
+          <t>Банк БЖФ</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>19.99</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>181 день</t>
+          <t>550 дней</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I78" t="n">
-        <v>19.99</v>
+        <v>8.960000000000001</v>
       </c>
     </row>
     <row r="79">
@@ -2921,29 +2925,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Руснарбанк</t>
+          <t>Еврофинанс Моснарбанк</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>21.15</v>
+        <v>22.1</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>400 дней</t>
+          <t>1 – 12 месяцев</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I79" t="n">
-        <v>21.15</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="80">
@@ -2952,7 +2956,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Зираат Банк Москва</t>
+          <t>Банк ЗЕНИТ</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2963,15 +2967,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>31 – 1095 дней</t>
+          <t>181 – 367 дней</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I80" t="n">
         <v>22</v>
@@ -2983,31 +2987,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>МБ РУС Банк</t>
+          <t>Живаго Банк</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>17.14</v>
+        <v>19.22</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1098 дней</t>
+          <t>279 дней</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G81" t="n">
-        <v>10000000</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>17.14</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="82">
@@ -3016,29 +3018,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Фора-Банк</t>
+          <t>Руснарбанк</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>21.6</v>
+        <v>21.15</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>31 д. - 2 лет</t>
+          <t>400 дней</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I82" t="n">
-        <v>21.6</v>
+        <v>21.15</v>
       </c>
     </row>
     <row r="83">
@@ -3047,18 +3049,18 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Акцепт</t>
+          <t>Зираат Банк Москва</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>91 – 367 дней</t>
+          <t>31 – 1095 дней</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -3066,10 +3068,10 @@
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84">
@@ -3078,29 +3080,31 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ростфинанс</t>
+          <t>Свой Банк</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>21.5</v>
+        <v>21.98</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>65 – 375 дней</t>
+          <t>91 – 1095 дней</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G84" t="inlineStr"/>
+        <v>30000</v>
+      </c>
+      <c r="G84" t="n">
+        <v>30000000</v>
+      </c>
       <c r="H84" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>21.5</v>
+        <v>21.98</v>
       </c>
     </row>
     <row r="85">
@@ -3109,29 +3113,31 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Новиком</t>
+          <t>МБ РУС Банк</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>21.5</v>
+        <v>17.14</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>250 – 1100 дней</t>
+          <t>1098 дней</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G85" t="inlineStr"/>
+        <v>50000</v>
+      </c>
+      <c r="G85" t="n">
+        <v>10000000</v>
+      </c>
       <c r="H85" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I85" t="n">
-        <v>21.5</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="86">
@@ -3140,31 +3146,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Росдорбанк</t>
+          <t>Фора-Банк</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="D86" t="n">
-        <v>21.3</v>
+        <v>0</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>31 – 547 дней</t>
+          <t>31 д. - 2 лет</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G86" t="n">
-        <v>150000000</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I86" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="87">
@@ -3173,7 +3177,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Внешфинбанк</t>
+          <t>Акцепт</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3184,15 +3188,13 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>92 дня</t>
+          <t>91 – 367 дней</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="G87" t="n">
-        <v>50000000</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
         <v>6</v>
       </c>
@@ -3206,7 +3208,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Москоммерцбанк</t>
+          <t>Ростфинанс</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3217,7 +3219,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>31 – 730 дней</t>
+          <t>65 – 375 дней</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -3225,7 +3227,7 @@
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I88" t="n">
         <v>21.5</v>
@@ -3237,29 +3239,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>БКС Банк</t>
+          <t>Новиком</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>181 день</t>
+          <t>250 – 1100 дней</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I89" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="90">
@@ -3268,29 +3270,31 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Банк ЗЕНИТ</t>
+          <t>Росдорбанк</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>21.35</v>
+        <v>21.5</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>91 – 367 дней</t>
+          <t>31 – 547 дней</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
+        <v>100000</v>
+      </c>
+      <c r="G90" t="n">
+        <v>150000000</v>
+      </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I90" t="n">
-        <v>21.35</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="91">
@@ -3299,29 +3303,31 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ишбанк</t>
+          <t>Внешфинбанк</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>21.25</v>
+        <v>21.5</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>31 – 1097 дней</t>
+          <t>92 дня</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G91" t="inlineStr"/>
+        <v>1500000</v>
+      </c>
+      <c r="G91" t="n">
+        <v>50000000</v>
+      </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I91" t="n">
-        <v>21.25</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="92">
@@ -3330,29 +3336,29 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>РОССИЯ</t>
+          <t>Москоммерцбанк</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>31 – 367 дней</t>
+          <t>31 – 730 дней</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>15000000</v>
+        <v>50000</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="93">
@@ -3361,29 +3367,29 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Пересвет</t>
+          <t>БКС Банк</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>21.15</v>
+        <v>21.4</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>91 – 366 дней</t>
+          <t>181 день</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I93" t="n">
-        <v>21.15</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="94">
@@ -3392,29 +3398,29 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Банк Казани</t>
+          <t>Ишбанк</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>21</v>
+        <v>21.25</v>
       </c>
       <c r="D94" t="n">
-        <v>20.25</v>
+        <v>0</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>91 – 367 дней</t>
+          <t>31 – 1097 дней</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I94" t="n">
-        <v>21</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="95">
@@ -3423,29 +3429,29 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Генбанк</t>
+          <t>РОССИЯ</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="D95" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>31 – 365 дней</t>
+          <t>31 – 367 дней</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>30000</v>
+        <v>15000000</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
         <v>5</v>
       </c>
       <c r="I95" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="96">
@@ -3454,29 +3460,29 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Уральский Банк реконструкции и развития</t>
+          <t>Пересвет</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>21</v>
+        <v>21.15</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>360 дней</t>
+          <t>91 – 366 дней</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>21</v>
+        <v>21.15</v>
       </c>
     </row>
     <row r="97">
@@ -3485,7 +3491,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>НОКССБАНК</t>
+          <t>Газтрансбанк</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3496,15 +3502,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1095 дней</t>
+          <t>181 день</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>10000000</v>
+        <v>50000</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I97" t="n">
         <v>21</v>
@@ -3516,18 +3522,18 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Энерготрансбанк</t>
+          <t>Банк Казани</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>21</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>20.25</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>181 – 300 дней</t>
+          <t>91 – 367 дней</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -3535,7 +3541,7 @@
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I98" t="n">
         <v>21</v>
@@ -3547,29 +3553,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Агророс</t>
+          <t>Генбанк</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>12 месяцев</t>
+          <t>31 – 365 дней</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I99" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
@@ -3578,7 +3584,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Нацинвестпромбанк</t>
+          <t>Уральский Банк реконструкции и развития</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -3589,15 +3595,13 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1095 дней</t>
+          <t>360 дней</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="G100" t="n">
-        <v>5000000</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
         <v>8</v>
       </c>
@@ -3611,7 +3615,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>СДМ-Банк</t>
+          <t>НОКССБАНК</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -3622,15 +3626,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>181 – 1097 дней</t>
+          <t>1095 дней</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>50000</v>
+        <v>10000000</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
         <v>21</v>
@@ -3642,7 +3646,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Агропромкредит</t>
+          <t>Энерготрансбанк</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -3653,7 +3657,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>91 – 1100 дней</t>
+          <t>181 – 300 дней</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -3661,7 +3665,7 @@
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I102" t="n">
         <v>21</v>
@@ -3673,18 +3677,18 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Евроальянс</t>
+          <t>Агророс</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1096 дней</t>
+          <t>12 месяцев</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -3692,10 +3696,10 @@
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I103" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104">
@@ -3704,7 +3708,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Акибанк</t>
+          <t>Нацинвестпромбанк</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -3715,15 +3719,17 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>186 дней</t>
+          <t>1095 дней</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="G104" t="inlineStr"/>
+        <v>1000000</v>
+      </c>
+      <c r="G104" t="n">
+        <v>5000000</v>
+      </c>
       <c r="H104" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I104" t="n">
         <v>21</v>
@@ -3735,29 +3741,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Интерпрогрессбанк</t>
+          <t>СДМ-Банк</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>22.61</v>
+        <v>21</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>367 дней</t>
+          <t>181 – 1097 дней</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>5000000</v>
+        <v>50000</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I105" t="n">
-        <v>22.61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
@@ -3766,26 +3772,26 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Национальный стандарт</t>
+          <t>Агропромкредит</t>
         </is>
       </c>
       <c r="C106" t="n">
         <v>21</v>
       </c>
       <c r="D106" t="n">
-        <v>20.7</v>
+        <v>0</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>31 – 360 дней</t>
+          <t>91 – 1100 дней</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I106" t="n">
         <v>21</v>
@@ -3797,29 +3803,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>РНКБ</t>
+          <t>Евроальянс</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>21</v>
       </c>
       <c r="D107" t="n">
-        <v>23.14</v>
+        <v>0</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>91 – 1095 дней</t>
+          <t>1096 дней</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
         <v>5</v>
       </c>
       <c r="I107" t="n">
-        <v>23.14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108">
@@ -3828,29 +3834,29 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Прио-Внешторгбанк</t>
+          <t>Акибанк</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>11.77</v>
+        <v>21</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1095 дней</t>
+          <t>186 дней</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>10000</v>
+        <v>3000000</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
         <v>10</v>
       </c>
       <c r="I108" t="n">
-        <v>11.77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109">
@@ -3859,29 +3865,29 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Пойдём!</t>
+          <t>Интерпрогрессбанк</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>12.95</v>
+        <v>22.61</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>24 месяца</t>
+          <t>367 дней</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>10000</v>
+        <v>5000000</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>12.95</v>
+        <v>22.61</v>
       </c>
     </row>
     <row r="110">
@@ -3890,29 +3896,29 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Кредит Европа Банк (Россия)</t>
+          <t>Национальный стандарт</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>31 – 1098 дней</t>
+          <t>31 – 360 дней</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I110" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
@@ -3921,14 +3927,14 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Свой Банк</t>
+          <t>РНКБ</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>23.14</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3936,16 +3942,14 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G111" t="n">
-        <v>30000000</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I111" t="n">
-        <v>20.6</v>
+        <v>23.14</v>
       </c>
     </row>
     <row r="112">
@@ -3954,29 +3958,29 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Углеметбанк</t>
+          <t>Прио-Внешторгбанк</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>20.59</v>
+        <v>11.77</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>91 – 200 дней</t>
+          <t>1095 дней</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I112" t="n">
-        <v>20.59</v>
+        <v>11.77</v>
       </c>
     </row>
     <row r="113">
@@ -3985,29 +3989,29 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Далена</t>
+          <t>Пойдём!</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>20.5</v>
+        <v>12.96</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>181 день</t>
+          <t>24 месяца</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>150000000</v>
+        <v>10000</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
         <v>3</v>
       </c>
       <c r="I113" t="n">
-        <v>20.5</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="114">
@@ -4016,31 +4020,29 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Солид Банк</t>
+          <t>Кредит Европа Банк (Россия)</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>91 день</t>
+          <t>31 – 1098 дней</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G114" t="n">
-        <v>5000000</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I114" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="115">
@@ -4049,31 +4051,29 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ОТП Банк</t>
+          <t>Углеметбанк</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>20.5</v>
+        <v>20.59</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>91 – 732 дней</t>
+          <t>91 – 200 дней</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G115" t="n">
-        <v>600000000</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
         <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>20.5</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="116">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Национальный резервный Банк</t>
+          <t>Далена</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -4093,11 +4093,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>91 – 1100 дней</t>
+          <t>181 день</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>10000000</v>
+        <v>150000000</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Трансстройбанк</t>
+          <t>Солид Банк</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -4124,15 +4124,17 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>365 дней</t>
+          <t>91 день</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G117" t="inlineStr"/>
+        <v>30000</v>
+      </c>
+      <c r="G117" t="n">
+        <v>5000000</v>
+      </c>
       <c r="H117" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I117" t="n">
         <v>20.5</v>
@@ -4144,7 +4146,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Алеф-Банк</t>
+          <t>ОТП Банк</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -4155,15 +4157,17 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>183 – 363 дней</t>
+          <t>91 – 732 дней</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G118" t="inlineStr"/>
+        <v>1000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>600000000</v>
+      </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I118" t="n">
         <v>20.5</v>
@@ -4175,7 +4179,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Космос</t>
+          <t>Национальный резервный Банк</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -4186,15 +4190,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>185 дней</t>
+          <t>91 – 1100 дней</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>30000</v>
+        <v>10000000</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I119" t="n">
         <v>20.5</v>
@@ -4206,7 +4210,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Агора</t>
+          <t>Петербургский социальный коммерческий Банк</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -4217,15 +4221,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>30 – 181 дня</t>
+          <t>90 дней</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
         <v>20.5</v>
@@ -4237,18 +4241,18 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Банк Раунд</t>
+          <t>Трансстройбанк</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>60 – 548 дней</t>
+          <t>365 дней</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -4256,10 +4260,10 @@
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I121" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="122">
@@ -4268,29 +4272,29 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ПроБанк</t>
+          <t>Алеф-Банк</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>20.34</v>
+        <v>20.5</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>1 – 36 месяцев</t>
+          <t>183 – 363 дней</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>200000</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
         <v>3</v>
       </c>
       <c r="I122" t="n">
-        <v>20.34</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="123">
@@ -4299,29 +4303,29 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Москва-Сити</t>
+          <t>Космос</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>181 день</t>
+          <t>185 дней</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I123" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="124">
@@ -4330,31 +4334,29 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Норвик Банк</t>
+          <t>Агора</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>20.14</v>
+        <v>20.5</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>93 – 183 дней</t>
+          <t>30 – 181 дня</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G124" t="n">
-        <v>50000000</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I124" t="n">
-        <v>20.14</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="125">
@@ -4363,18 +4365,18 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Крокус-Банк</t>
+          <t>Банк Раунд</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>20.05</v>
+        <v>20.4</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>180 дней</t>
+          <t>60 – 548 дней</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -4382,10 +4384,10 @@
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I125" t="n">
-        <v>20.05</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="126">
@@ -4394,29 +4396,29 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Газтрансбанк</t>
+          <t>ПроБанк</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>20</v>
+        <v>20.34</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>181 день</t>
+          <t>1 – 36 месяцев</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I126" t="n">
-        <v>20</v>
+        <v>20.34</v>
       </c>
     </row>
     <row r="127">
@@ -4425,31 +4427,29 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>РОСБАНК</t>
+          <t>Москва-Сити</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>3 – 12 месяцев</t>
+          <t>181 день</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G127" t="n">
-        <v>300000000</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="128">
@@ -4458,29 +4458,31 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Муниципальный Камчатпрофитбанк</t>
+          <t>Норвик Банк</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>20</v>
+        <v>20.14</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>3 – 6 месяцев</t>
+          <t>93 – 183 дней</t>
         </is>
       </c>
       <c r="F128" t="n">
         <v>10000</v>
       </c>
-      <c r="G128" t="inlineStr"/>
+      <c r="G128" t="n">
+        <v>50000000</v>
+      </c>
       <c r="H128" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I128" t="n">
-        <v>20</v>
+        <v>20.14</v>
       </c>
     </row>
     <row r="129">
@@ -4489,29 +4491,29 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Финам</t>
+          <t>Синко-Банк</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>31 – 731 дня</t>
+          <t>30 – 730 дней</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>30000</v>
+        <v>1000000</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="130">
@@ -4520,29 +4522,29 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Ноосфера</t>
+          <t>Крокус-Банк</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>20</v>
+        <v>20.05</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>31 – 366 дней</t>
+          <t>180 дней</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I130" t="n">
-        <v>20</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="131">
@@ -4551,7 +4553,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Развитие-столица</t>
+          <t>Тимер Банк</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -4562,15 +4564,17 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>31 день</t>
+          <t>от 1 дня</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="G131" t="inlineStr"/>
+        <v>1000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>10000000</v>
+      </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I131" t="n">
         <v>20</v>
@@ -4582,26 +4586,28 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Москомбанк</t>
+          <t>РОСБАНК</t>
         </is>
       </c>
       <c r="C132" t="n">
         <v>20</v>
       </c>
       <c r="D132" t="n">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>31 – 364 дней</t>
+          <t>3 – 12 месяцев</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G132" t="inlineStr"/>
+        <v>15000</v>
+      </c>
+      <c r="G132" t="n">
+        <v>300000000</v>
+      </c>
       <c r="H132" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
         <v>20</v>
@@ -4613,7 +4619,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Меткомбанк</t>
+          <t>Муниципальный Камчатпрофитбанк</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -4624,15 +4630,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>181 – 370 дней</t>
+          <t>3 – 6 месяцев</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I133" t="n">
         <v>20</v>
@@ -4644,7 +4650,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Центрокредит</t>
+          <t>Финам</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -4655,15 +4661,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>31 – 370 дней</t>
+          <t>31 – 731 дня</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>10000000</v>
+        <v>30000</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I134" t="n">
         <v>20</v>
@@ -4675,29 +4681,29 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Финстар Банк</t>
+          <t>Ноосфера</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>730 дней</t>
+          <t>31 – 366 дней</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
         <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136">
@@ -4706,29 +4712,29 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Инбанк</t>
+          <t>Развитие-столица</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>31 – 1096 дней</t>
+          <t>31 день</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>5000000</v>
+        <v>50000000</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137">
@@ -4737,29 +4743,29 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Петербургский социальный коммерческий Банк</t>
+          <t>Москомбанк</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>31 – 180 дней</t>
+          <t>31 – 364 дней</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I137" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138">
@@ -4768,31 +4774,29 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Капитал</t>
+          <t>Меткомбанк</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>31 – 364 дней</t>
+          <t>181 – 370 дней</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="G138" t="n">
-        <v>50000000</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139">
@@ -4801,29 +4805,29 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ланта-Банк</t>
+          <t>Центрокредит</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>61 день</t>
+          <t>31 – 370 дней</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>100000000</v>
+        <v>10000000</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140">
@@ -4832,29 +4836,31 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Национальный Банк сбережений</t>
+          <t>Банк Финсервис</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>270 дней</t>
+          <t>93 – 183 дней</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G140" t="inlineStr"/>
+        <v>100000</v>
+      </c>
+      <c r="G140" t="n">
+        <v>5000000</v>
+      </c>
       <c r="H140" t="n">
         <v>6</v>
       </c>
       <c r="I140" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="141">
@@ -4863,29 +4869,29 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Гута-Банк</t>
+          <t>Инбанк</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>31 – 1096 дней</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>50000000</v>
+        <v>5000000</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I141" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="142">
@@ -4894,7 +4900,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Северный Народный Банк</t>
+          <t>Капитал</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -4905,15 +4911,17 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>150 дней</t>
+          <t>31 – 364 дней</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G142" t="inlineStr"/>
+        <v>5000000</v>
+      </c>
+      <c r="G142" t="n">
+        <v>50000000</v>
+      </c>
       <c r="H142" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
         <v>19</v>
@@ -4925,7 +4933,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Россита-Банк</t>
+          <t>Ланта-Банк</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -4936,15 +4944,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>30 – 365 дней</t>
+          <t>61 день</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I143" t="n">
         <v>19</v>
@@ -4956,7 +4964,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Банк РСИ</t>
+          <t>Национальный Банк сбережений</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -4967,15 +4975,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>30 дней</t>
+          <t>270 дней</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>70000000</v>
+        <v>10000</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I144" t="n">
         <v>19</v>
@@ -4987,7 +4995,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Дружба</t>
+          <t>Гута-Банк</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -4998,15 +5006,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>366 – 1096 дней</t>
+          <t>7 дней</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3000000</v>
+        <v>50000000</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
         <v>19</v>
@@ -5018,7 +5026,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Банк РМП</t>
+          <t>Северный Народный Банк</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -5029,15 +5037,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>31 – 365 дней</t>
+          <t>150 дней</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I146" t="n">
         <v>19</v>
@@ -5049,29 +5057,29 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>МБА-Москва</t>
+          <t>Россита-Банк</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>18.75</v>
+        <v>19</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>90 – 365 дней</t>
+          <t>30 – 365 дней</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>5000000</v>
+        <v>100000</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>18.75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148">
@@ -5080,29 +5088,29 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Новый век</t>
+          <t>Банк РСИ</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>18.75</v>
+        <v>19</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>31 – 180 дней</t>
+          <t>30 дней</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>50000</v>
+        <v>70000000</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>18.75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149">
@@ -5111,29 +5119,29 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>НК Банк</t>
+          <t>Дружба</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>18.75</v>
+        <v>19</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>30 – 545 дней</t>
+          <t>366 – 1096 дней</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>500000</v>
+        <v>3000000</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I149" t="n">
-        <v>18.75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150">
@@ -5142,31 +5150,29 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Тимер Банк</t>
+          <t>Банк РМП</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>от 1 дня</t>
+          <t>31 – 365 дней</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G150" t="n">
-        <v>10000000</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151">
@@ -5175,29 +5181,29 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Мир привилегий</t>
+          <t>МБА-Москва</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>18.5</v>
+        <v>18.75</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>185 – 370 дней</t>
+          <t>90 – 365 дней</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>50000</v>
+        <v>5000000</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
-        <v>18.5</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="152">
@@ -5206,29 +5212,29 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Тольяттихимбанк</t>
+          <t>Новый век</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>18.5</v>
+        <v>18.75</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>91 день</t>
+          <t>31 – 180 дней</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>18.5</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="153">
@@ -5237,29 +5243,29 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Синко-Банк</t>
+          <t>НК Банк</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>18.1</v>
+        <v>18.75</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>30 – 730 дней</t>
+          <t>30 – 545 дней</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>18.1</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="154">
@@ -5268,11 +5274,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Социум-Банк</t>
+          <t>Мир привилегий</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -5287,10 +5293,10 @@
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I154" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="155">
@@ -5299,29 +5305,29 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Русьуниверсалбанк</t>
+          <t>Тольяттихимбанк</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>3 – 6 месяцев</t>
+          <t>91 день</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>75000000</v>
+        <v>100000</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I155" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="156">
@@ -5330,29 +5336,29 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Форштадт</t>
+          <t>Социум-Банк</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>12.17</v>
+        <v>18</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>546 дней</t>
+          <t>185 – 370 дней</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
         <v>4</v>
       </c>
       <c r="I156" t="n">
-        <v>12.17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157">
@@ -5361,7 +5367,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Автоторгбанк</t>
+          <t>Русьуниверсалбанк</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -5372,15 +5378,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>181 – 367 дней</t>
+          <t>3 – 6 месяцев</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>30000</v>
+        <v>75000000</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
         <v>18</v>
@@ -5392,29 +5398,29 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Тендер-Банк</t>
+          <t>Форштадт</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>18</v>
+        <v>12.17</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>90 дней</t>
+          <t>546 дней</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>3000000</v>
+        <v>100000</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I158" t="n">
-        <v>18</v>
+        <v>12.17</v>
       </c>
     </row>
     <row r="159">
@@ -5423,7 +5429,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>НДБанк</t>
+          <t>Автоторгбанк</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -5434,15 +5440,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>360 дней</t>
+          <t>181 – 367 дней</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>300000</v>
+        <v>30000</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I159" t="n">
         <v>18</v>
@@ -5454,7 +5460,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Держава</t>
+          <t>Тендер-Банк</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -5465,15 +5471,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>31 – 365 дней</t>
+          <t>90 дней</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>3000000</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>18</v>
@@ -5485,29 +5491,29 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>НДБанк</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>31 – 367 дней</t>
+          <t>360 дней</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162">
@@ -5516,29 +5522,29 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Сургутнефтегазбанк</t>
+          <t>Держава</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>17.3</v>
+        <v>18</v>
       </c>
       <c r="D162" t="n">
-        <v>17.93</v>
+        <v>0</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>31 – 181 дня</t>
+          <t>31 – 365 дней</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I162" t="n">
-        <v>17.93</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163">
@@ -5547,29 +5553,29 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ЦМРБанк</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>91 – 367 дней</t>
+          <t>31 – 367 дней</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
         <v>3</v>
       </c>
       <c r="I163" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="164">
@@ -5578,29 +5584,29 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Сервис резерв</t>
+          <t>Сургутнефтегазбанк</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>17.93</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>31 – 40 дней</t>
+          <t>31 – 181 дня</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I164" t="n">
-        <v>17</v>
+        <v>17.93</v>
       </c>
     </row>
     <row r="165">
@@ -5609,7 +5615,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Татсоцбанк</t>
+          <t>ЦМРБанк</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -5620,15 +5626,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>60 дней</t>
+          <t>91 – 367 дней</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I165" t="n">
         <v>17</v>
@@ -5640,7 +5646,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Славия</t>
+          <t>Сервис резерв</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -5651,15 +5657,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>91 – 364 дней</t>
+          <t>31 – 40 дней</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>700000</v>
+        <v>10000</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I166" t="n">
         <v>17</v>
@@ -5671,29 +5677,29 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ИК Банк</t>
+          <t>Татсоцбанк</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>16.17</v>
+        <v>17</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>186 – 372 дней</t>
+          <t>60 дней</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I167" t="n">
-        <v>16.17</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168">
@@ -5702,31 +5708,29 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Банк Финсервис</t>
+          <t>Славия</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>93 дня</t>
+          <t>91 – 364 дней</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G168" t="n">
-        <v>5000000</v>
-      </c>
+        <v>700000</v>
+      </c>
+      <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169">
@@ -5735,29 +5739,29 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Банк СГБ</t>
+          <t>ИК Банк</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>16</v>
+        <v>16.17</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>от 1 дня</t>
+          <t>186 – 372 дней</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I169" t="n">
-        <v>16</v>
+        <v>16.17</v>
       </c>
     </row>
     <row r="170">
@@ -5766,7 +5770,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Ури Банк</t>
+          <t>Банк СГБ</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -5777,15 +5781,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>30 – 91 дня</t>
+          <t>от 1 дня</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I170" t="n">
         <v>16</v>
@@ -5797,7 +5801,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Эс-Би-Ай Банк</t>
+          <t>Ури Банк</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -5808,17 +5812,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>91 – 730 дней</t>
+          <t>30 – 91 дня</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G171" t="n">
-        <v>30000000</v>
-      </c>
+        <v>1000000</v>
+      </c>
+      <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
         <v>16</v>
@@ -5830,7 +5832,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>РБА</t>
+          <t>Эс-Би-Ай Банк</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -5841,15 +5843,17 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>30 – 365 дней</t>
+          <t>91 – 730 дней</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G172" t="inlineStr"/>
+        <v>30000</v>
+      </c>
+      <c r="G172" t="n">
+        <v>30000000</v>
+      </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I172" t="n">
         <v>16</v>
@@ -5861,31 +5865,29 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>МТИ Банк</t>
+          <t>РБА</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>3 – 13 месяцев</t>
+          <t>30 – 365 дней</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>500000</v>
-      </c>
-      <c r="G173" t="n">
-        <v>15000000</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174">
@@ -5894,7 +5896,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>РЕСО Кредит</t>
+          <t>МТИ Банк</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -5905,15 +5907,17 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>91 – 3650 дней</t>
+          <t>3 – 13 месяцев</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G174" t="inlineStr"/>
+        <v>500000</v>
+      </c>
+      <c r="G174" t="n">
+        <v>15000000</v>
+      </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>15</v>
@@ -5925,29 +5929,29 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Банк Интеза</t>
+          <t>РЕСО Кредит</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>91 – 731 дня</t>
+          <t>91 – 3650 дней</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
         <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176">
@@ -5956,29 +5960,29 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Новый Московский Банк</t>
+          <t>Банк Интеза</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>181 – 365 дней</t>
+          <t>91 – 731 дня</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="177">
@@ -5987,29 +5991,29 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Сбербанк</t>
+          <t>Новый Московский Банк</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>12.5</v>
+        <v>13.4</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>3 мес. - 1 года</t>
+          <t>181 – 365 дней</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I177" t="n">
-        <v>12.5</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="178">
@@ -6018,18 +6022,18 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Промсельхозбанк</t>
+          <t>Сбербанк</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>91 – 181 дня</t>
+          <t>3 мес. - 1 года</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -6037,10 +6041,10 @@
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I178" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="179">
@@ -6049,29 +6053,29 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Соколовский</t>
+          <t>Промсельхозбанк</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>31 – 360 дней</t>
+          <t>91 – 181 дня</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>500001</v>
+        <v>50000</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
@@ -6080,31 +6084,29 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Яндекс Банк</t>
+          <t>Соколовский</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>от 1 дня</t>
+          <t>31 – 360 дней</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
-      </c>
-      <c r="G180" t="n">
-        <v>30000000</v>
-      </c>
+        <v>500001</v>
+      </c>
+      <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181">
@@ -6113,26 +6115,28 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Столичный кредит</t>
+          <t>Яндекс Банк</t>
         </is>
       </c>
       <c r="C181" t="n">
         <v>8</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>90 – 181 дня</t>
+          <t>от 1 дня</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G181" t="n">
+        <v>30000000</v>
+      </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>8</v>
@@ -6144,7 +6148,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Bank of China</t>
+          <t>Столичный кредит</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -6155,15 +6159,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>91 – 367 дней</t>
+          <t>90 – 181 дня</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>8</v>
@@ -6175,11 +6179,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Кремлевский</t>
+          <t>Bank of China</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -6190,14 +6194,14 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
         <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184">
@@ -6206,29 +6210,29 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Аресбанк</t>
+          <t>Кремлевский</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>367 – 1101 дня</t>
+          <t>91 – 367 дней</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
         <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
@@ -6237,29 +6241,29 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Российская финансовая корпорация</t>
+          <t>Аресбанк</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>91 – 181 дня</t>
+          <t>367 – 1101 дня</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="186">
@@ -6268,7 +6272,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Спецстройбанк</t>
+          <t>Российская финансовая корпорация</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -6279,11 +6283,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>30 – 1096 дней</t>
+          <t>91 – 181 дня</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
@@ -6299,7 +6303,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>СМЛТ Банк</t>
+          <t>Спецстройбанк</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -6310,15 +6314,13 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>91 – 367 дней</t>
+          <t>30 – 1096 дней</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>150000</v>
-      </c>
-      <c r="G187" t="n">
-        <v>100000000</v>
-      </c>
+        <v>1000000</v>
+      </c>
+      <c r="G187" t="inlineStr"/>
       <c r="H187" t="n">
         <v>0</v>
       </c>
@@ -6332,29 +6334,31 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Эко-инвест</t>
+          <t>СМЛТ Банк</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>30 – 365 дней</t>
+          <t>91 – 367 дней</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1</v>
-      </c>
-      <c r="G188" t="inlineStr"/>
+        <v>150000</v>
+      </c>
+      <c r="G188" t="n">
+        <v>100000000</v>
+      </c>
       <c r="H188" t="n">
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="189">
@@ -6363,30 +6367,61 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
+          <t>Эко-инвест</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>3</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>30 – 365 дней</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
           <t>ЮниКредит Банк</t>
         </is>
       </c>
-      <c r="C189" t="n">
+      <c r="C190" t="n">
         <v>2</v>
       </c>
-      <c r="D189" t="n">
-        <v>0</v>
-      </c>
-      <c r="E189" t="inlineStr">
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="inlineStr">
         <is>
           <t>91 день</t>
         </is>
       </c>
-      <c r="F189" t="n">
+      <c r="F190" t="n">
         <v>10000</v>
       </c>
-      <c r="G189" t="n">
+      <c r="G190" t="n">
         <v>15000000</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/banks.xlsx
+++ b/data/banks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,5858 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Транскапиталбанк</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>365 дней</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Локо-Банк</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>182 дня</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Газпромбанк</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>от 1 дня</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Альфа-Банк</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>от 1 дня</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Т-Банк</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2 – 24 месяцев</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>24.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Сбербанк</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1 мес. - 3 лет</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Свой Банк</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>23.56</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91 – 1095 дней</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>23.56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>МТС Банк</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91 – 1096 дней</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>22.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Газпромбанк</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>181 день</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Альфа-Банк</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92 – 1095 дней</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>23.52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ОТП Банк</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91 – 732 дней</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>600000000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ОТП Банк</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>181 – 732 дней</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>БыстроБанк</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>24</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91 – 191 дня</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Примсоцбанк</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>212 дней</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Интерпрогрессбанк</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>367 дней</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>22.16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Яндекс Банк</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>24</v>
+      </c>
+      <c r="D17" t="n">
+        <v>24</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91 – 730 дней</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Газпромбанк</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>19</v>
+      </c>
+      <c r="D18" t="n">
+        <v>19</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>от 1 дня</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Банк ДОМ.РФ</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91 – 1100 дней</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Банк Уралсиб</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="D20" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91 – 1100 дней</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Кредит Европа Банк (Россия)</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>21</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91 – 730 дней</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Сбербанк</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>18</v>
+      </c>
+      <c r="D22" t="n">
+        <v>18</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>от 1 дня</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ПСБ</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91 – 367 дней</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+      <c r="I23" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Азиатско-Тихоокеанский Банк</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>367 дней</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+      <c r="I24" t="n">
+        <v>22.74</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ОЗОН Банк</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>от 1 дня</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Банк Уралсиб</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91 – 732 дней</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>24.65</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ренессанс Банк</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="D27" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>от 1 дня</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>23.76</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Банк ДОМ.РФ</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91 – 1100 дней</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+      <c r="I28" t="n">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Газпромбанк</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>24</v>
+      </c>
+      <c r="D29" t="n">
+        <v>24</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91 – 1095 дней</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Московский Кредитный Банк</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>24</v>
+      </c>
+      <c r="D30" t="n">
+        <v>24</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95 – 1100 дней</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+      <c r="I30" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Совкомбанк</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="D31" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90 – 1095 дней</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Альфа-Банк</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92 – 1095 дней</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>23.54</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Камкомбанк</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>23</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91 день</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Центр-инвест</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1095 дней</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>МТС Банк</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>120 – 367 дней</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Ак Барс Банк</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91 – 1100 дней</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Цифра банк</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91 день</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>20.15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Ингосстрах Банк</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>19</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93 – 367 дней</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+      <c r="I38" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ВТБ</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>17.37</v>
+      </c>
+      <c r="D39" t="n">
+        <v>18</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>181 день</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Т-Банк</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>16</v>
+      </c>
+      <c r="D40" t="n">
+        <v>16</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>от 1 дня</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Металлинвестбанк</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>367 дней</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+      <c r="I41" t="n">
+        <v>22.82</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Абсолют Банк</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>360 дней</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>20.06</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Гарант-инвест</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>181 – 370 дней</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>12</v>
+      </c>
+      <c r="I43" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Инвестторгбанк</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>25</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91 – 370 дней</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+      <c r="I44" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>БыстроБанк</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>25</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1830 – 1840 дней</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Кошелев-Банк</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2200 дней</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>11</v>
+      </c>
+      <c r="I46" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Русский стандарт</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="D47" t="n">
+        <v>25</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>275 дней</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Локо-Банк</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>182 дня</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="H48" t="n">
+        <v>16</v>
+      </c>
+      <c r="I48" t="n">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Норвик Банк</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>24.19</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>183 дня</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="H49" t="n">
+        <v>13</v>
+      </c>
+      <c r="I49" t="n">
+        <v>24.19</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Транскапиталбанк</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91 – 370 дней</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>НС Банк</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>100 – 200 дней</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+      <c r="I51" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Примсоцбанк</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>122 дня</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>13</v>
+      </c>
+      <c r="I52" t="n">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Реалист Банк</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91 – 370 дней</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+      <c r="I53" t="n">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Кубань Кредит</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>24</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>366 дней</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ББР Банк</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>24</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>730 – 1100 дней</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+      <c r="I55" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Клюква</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>181 день</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Россельхозбанк</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>24</v>
+      </c>
+      <c r="D57" t="n">
+        <v>21</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91 – 1095 дней</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>15</v>
+      </c>
+      <c r="I57" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Банк «Санкт-Петербург»</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>24</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91 – 181 дня</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>500000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+      <c r="I58" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Александровский</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>24</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91 – 735 дней</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+      <c r="I59" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Пойдём!</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>24 месяца</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Еврофинанс Моснарбанк</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>24</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1 – 12 месяцев</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+      <c r="I61" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Международный финансовый клуб</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>3 – 24 месяцев</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Ростфинанс</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>405 дней</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+      <c r="I63" t="n">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Почта Банк</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91 – 275 дней</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+      <c r="I64" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Зираат Банк Москва</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>31 – 1095 дней</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Банк БЖФ</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>550 дней</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+      <c r="I66" t="n">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Генбанк</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>23</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>31 – 1095 дней</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+      <c r="I67" t="n">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Внешфинбанк</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92 – 500 дней</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+      <c r="I68" t="n">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>МБ РУС Банк</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1098 дней</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+      <c r="I69" t="n">
+        <v>17.69</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Акибанк</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>186 дней</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>12</v>
+      </c>
+      <c r="I70" t="n">
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>БКС Банк</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>180 дней</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+      <c r="I71" t="n">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Таврический</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>31 – 91 дня</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+      <c r="I72" t="n">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Национальный Банк сбережений</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>23</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>181 день</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+      <c r="I73" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Энерготрансбанк</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>23</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>61 – 365 дней</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+      <c r="I74" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Мир Бизнес Банк</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>23</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>31 – 181 дня</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Промтрансбанк</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>750 дней</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+      <c r="I76" t="n">
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Белгородсоцбанк</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>23</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>181 день</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+      <c r="I77" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Банк ВБРР</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>23</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>31 – 1096 дней</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+      <c r="I78" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Акцепт</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>23</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>120 – 181 дня</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+      <c r="I79" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Национальный стандарт</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>23</v>
+      </c>
+      <c r="D80" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>31 – 360 дней</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+      <c r="I80" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Руснарбанк</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>400 дней</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+      <c r="I81" t="n">
+        <v>22.57</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ЦМРБанк</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91 – 367 дней</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+      <c r="I82" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>КБ Солидарность</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>210 дней</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+      <c r="I83" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Финстар Банк</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>730 дней</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+      <c r="I84" t="n">
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Новиком</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91 – 1100 дней</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+      <c r="I85" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Свой Банк</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91 – 1095 дней</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G86" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>22.65</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Банк Синара</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90 – 1080 дней</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G87" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="H87" t="n">
+        <v>12</v>
+      </c>
+      <c r="I87" t="n">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Газэнергобанк</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90 – 1080 дней</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="H88" t="n">
+        <v>12</v>
+      </c>
+      <c r="I88" t="n">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Муниципальный Камчатпрофитбанк</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>3 – 6 месяцев</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+      <c r="I89" t="n">
+        <v>22.55</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Фора-Банк</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>31 д. - 2 лет</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I90" t="n">
+        <v>22.55</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Экспобанк</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>181 день</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G91" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+      <c r="I91" t="n">
+        <v>22.51</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Солид Банк</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91 день</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+      <c r="I92" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Банк Глобус</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>61 – 181 дня</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+      <c r="I93" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Приморье</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>31 – 1095 дней</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+      <c r="I94" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Морской Банк</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91 – 367 дней</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+      <c r="I95" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Первый Инвестиционный Банк</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>270 – 365 дней</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+      <c r="I96" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Москоммерцбанк</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>31 – 730 дней</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+      <c r="I97" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Банк ЗЕНИТ</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>22</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>181 – 367 дней</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+      <c r="I98" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>РОСБАНК</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>22</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>3 – 12 месяцев</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G99" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Живаго Банк</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>279 дней</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+      <c r="I100" t="n">
+        <v>19.22</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Алеф-Банк</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>22</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>183 – 363 дней</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+      <c r="I101" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>РОССИЯ</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>367 – 1095 дней</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+      <c r="I102" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Росдорбанк</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>31 – 547 дней</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G103" t="n">
+        <v>150000000</v>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+      <c r="I103" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Ишбанк</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>31 – 1097 дней</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+      <c r="I104" t="n">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Пересвет</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91 – 366 дней</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+      <c r="I105" t="n">
+        <v>21.15</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Газтрансбанк</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>21</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>181 день</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+      <c r="I106" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Уральский Банк реконструкции и развития</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>21</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>360 дней</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+      <c r="I107" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>НОКССБАНК</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>21</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1095 дней</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Агророс</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>12 месяцев</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+      <c r="I109" t="n">
+        <v>16.01</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Прио-Внешторгбанк</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>21</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>300 дней</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+      <c r="I110" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Нацинвестпромбанк</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>21</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1095 дней</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+      <c r="I111" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>СДМ-Банк</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>21</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>181 – 1097 дней</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+      <c r="I112" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Агропромкредит</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>21</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91 – 1100 дней</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+      <c r="I113" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Евроальянс</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>21</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1096 дней</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+      <c r="I114" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Сбербанк</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>21</v>
+      </c>
+      <c r="D115" t="n">
+        <v>21</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1 – 36 месяцев</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+      <c r="I115" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Интерпрогрессбанк</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>367 дней</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+      <c r="I116" t="n">
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>РНКБ</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>21</v>
+      </c>
+      <c r="D117" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91 – 1095 дней</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+      <c r="I117" t="n">
+        <v>23.14</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Кредит Европа Банк (Россия)</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>31 – 1098 дней</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+      <c r="I118" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Углеметбанк</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>91 – 200 дней</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+      <c r="I119" t="n">
+        <v>20.59</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Далена</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>181 день</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>150000000</v>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+      <c r="I120" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Банк Казани</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>20</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>367 дней</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+      <c r="I121" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Национальный резервный Банк</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91 – 1100 дней</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+      <c r="I122" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Петербургский социальный коммерческий Банк</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90 дней</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Трансстройбанк</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>365 дней</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+      <c r="I124" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Космос</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>185 дней</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I125" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Агора</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>30 – 181 дня</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+      <c r="I126" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Банк Раунд</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>60 – 548 дней</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+      <c r="I127" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ПроБанк</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1 – 36 месяцев</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+      <c r="I128" t="n">
+        <v>20.34</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Северный Народный Банк</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>180 дней</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+      <c r="I129" t="n">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Москва-Сити</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>181 день</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Синко-Банк</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>30 – 730 дней</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+      <c r="I131" t="n">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Крокус-Банк</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>180 дней</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+      <c r="I132" t="n">
+        <v>20.05</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>МТИ Банк</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>20</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>3 месяца</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+      <c r="I133" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Тимер Банк</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>20</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>от 1 дня</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G134" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+      <c r="I134" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Финам</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>20</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>31 – 731 дня</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="n">
+        <v>12</v>
+      </c>
+      <c r="I135" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Ноосфера</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>20</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>31 – 366 дней</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+      <c r="I136" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Развитие-столица</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>20</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>31 день</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Москомбанк</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>20</v>
+      </c>
+      <c r="D138" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>31 – 364 дней</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+      <c r="I138" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Меткомбанк</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>20</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>181 – 370 дней</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+      <c r="I139" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Центрокредит</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>20</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>31 – 370 дней</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Банк Финсервис</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93 – 183 дней</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G141" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+      <c r="I141" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Инбанк</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>31 – 1096 дней</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+      <c r="I142" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Капитал</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>19</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>31 – 364 дней</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G143" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+      <c r="I143" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Гута-Банк</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>19</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>7 дней</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+      <c r="I144" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ИК Банк</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>19</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>31 – 93 дней</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+      <c r="I145" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Тендер-Банк</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>19</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>90 дней</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Россита-Банк</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>19</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>30 – 365 дней</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+      <c r="I147" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Банк РСИ</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>19</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>30 дней</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Дружба</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>19</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>366 – 1096 дней</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+      <c r="I149" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Банк РМП</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>19</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>31 – 365 дней</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ОТП Банк</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>50 дней</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+      <c r="I151" t="n">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>МБА-Москва</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>90 – 365 дней</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Новый век</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>31 – 180 дней</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>НК Банк</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>30 – 545 дней</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Мир привилегий</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>185 – 370 дней</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="n">
+        <v>3</v>
+      </c>
+      <c r="I155" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Тольяттихимбанк</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>91 день</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="n">
+        <v>4</v>
+      </c>
+      <c r="I156" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Ланта-Банк</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>18</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>92 дня</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+      <c r="I157" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Социум-Банк</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>18</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>185 – 370 дней</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+      <c r="I158" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>НДБанк</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>18</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>91 – 360 дней</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+      <c r="I159" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Русьуниверсалбанк</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>18</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>3 – 6 месяцев</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>75000000</v>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+      <c r="I160" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Автоторгбанк</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>18</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>181 – 367 дней</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+      <c r="I161" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Держава</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>18</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>31 – 365 дней</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="n">
+        <v>3</v>
+      </c>
+      <c r="I162" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>31 – 367 дней</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+      <c r="I163" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Сургутнефтегазбанк</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D164" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>31 – 181 дня</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+      <c r="I164" t="n">
+        <v>17.93</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Сервис резерв</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>17</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>31 – 40 дней</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+      <c r="I165" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Татсоцбанк</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>17</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>60 дней</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="n">
+        <v>6</v>
+      </c>
+      <c r="I166" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Славия</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>17</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>91 – 364 дней</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>700000</v>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+      <c r="I167" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Форштадт</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>546 дней</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+      <c r="I168" t="n">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Эс-Би-Ай Банк</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>16</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>91 – 730 дней</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G169" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+      <c r="I169" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Банк СГБ</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>16</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>от 1 дня</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+      <c r="I170" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Ури Банк</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>16</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>30 – 91 дня</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+      <c r="I171" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>РБА</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>16</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>30 – 365 дней</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>РЕСО Кредит</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>15</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>91 – 3650 дней</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+      <c r="I173" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Банк Интеза</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>91 – 731 дня</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+      <c r="I174" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Новый Московский Банк</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>181 – 365 дней</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="n">
+        <v>3</v>
+      </c>
+      <c r="I175" t="n">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Промсельхозбанк</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>10</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>91 – 181 дня</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Соколовский</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>9</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>31 – 360 дней</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>500001</v>
+      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+      <c r="I177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Яндекс Банк</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>8</v>
+      </c>
+      <c r="D178" t="n">
+        <v>8</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>от 1 дня</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Столичный кредит</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>8</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>90 – 181 дня</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Bank of China</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>8</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>91 – 367 дней</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+      <c r="I180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Кремлевский</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>7</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>91 – 367 дней</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+      <c r="I181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Аресбанк</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>367 – 1101 дня</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+      <c r="I182" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Российская финансовая корпорация</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>91 – 181 дня</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Спецстройбанк</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>30 – 1096 дней</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>СМЛТ Банк</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>91 – 367 дней</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G185" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Эко-инвест</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>3</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>30 – 365 дней</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ЮниКредит Банк</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>2</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>91 день</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G187" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/banks.xlsx
+++ b/data/banks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:I186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,31 +519,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Локо-Банк</t>
+          <t>Газпромбанк</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>182 дня</t>
+          <t>от 1 дня</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>300000</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -552,14 +552,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Газпромбанк</t>
+          <t>Альфа-Банк</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>24</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -585,31 +585,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Альфа-Банк</t>
+          <t>Т-Банк</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>24.13</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>от 1 дня</t>
+          <t>2 – 24 месяцев</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>24</v>
+        <v>24.13</v>
       </c>
     </row>
     <row r="6">
@@ -618,29 +616,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Т-Банк</t>
+          <t>Сбербанк</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>21.5</v>
       </c>
       <c r="D6" t="n">
-        <v>24.13</v>
+        <v>17.5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2 – 24 месяцев</t>
+          <t>1 мес. - 3 лет</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>24.13</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="7">
@@ -649,29 +647,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Сбербанк</t>
+          <t>Свой Банк</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21.5</v>
+        <v>23.56</v>
       </c>
       <c r="D7" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1 мес. - 3 лет</t>
+          <t>91 – 1095 дней</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>100000</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>30000000</v>
+      </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>21.5</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="8">
@@ -680,31 +680,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Свой Банк</t>
+          <t>МТС Банк</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23.56</v>
+        <v>22.03</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91 – 1095 дней</t>
+          <t>91 – 1096 дней</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G8" t="n">
-        <v>30000000</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>23.56</v>
+        <v>22.03</v>
       </c>
     </row>
     <row r="9">
@@ -713,29 +711,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>МТС Банк</t>
+          <t>Газпромбанк</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.03</v>
+        <v>23.01</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91 – 1096 дней</t>
+          <t>181 день</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>22.03</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -744,29 +742,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Газпромбанк</t>
+          <t>Альфа-Банк</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.01</v>
+        <v>23.05</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>23.52</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>181 день</t>
+          <t>92 – 1095 дней</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>23.52</v>
       </c>
     </row>
     <row r="11">
@@ -775,29 +773,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Альфа-Банк</t>
+          <t>ОТП Банк</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.05</v>
+        <v>22.4</v>
       </c>
       <c r="D11" t="n">
-        <v>23.52</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92 – 1095 дней</t>
+          <t>91 – 732 дней</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>1000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>600000000</v>
+      </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.52</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="12">
@@ -810,27 +810,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91 – 732 дней</t>
+          <t>181 – 732 дней</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="G12" t="n">
-        <v>600000000</v>
+        <v>300000000</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="13">
@@ -839,31 +839,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ОТП Банк</t>
+          <t>БыстроБанк</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.2</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>181 – 732 дней</t>
+          <t>91 – 191 дня</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G13" t="n">
-        <v>300000000</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>22.2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -872,18 +870,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>БыстроБанк</t>
+          <t>Примсоцбанк</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>24.6</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>24.6</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91 – 191 дня</t>
+          <t>212 дней</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -894,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>24</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="15">
@@ -903,29 +901,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Примсоцбанк</t>
+          <t>Интерпрогрессбанк</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24.6</v>
+        <v>22.16</v>
       </c>
       <c r="D15" t="n">
-        <v>24.6</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>212 дней</t>
+          <t>367 дней</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>24.6</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="16">
@@ -934,29 +932,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Интерпрогрессбанк</t>
+          <t>Яндекс Банк</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.16</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>367 дней</t>
+          <t>91 – 730 дней</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+        <v>10000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10000000</v>
+      </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>22.16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -965,31 +965,31 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Яндекс Банк</t>
+          <t>Газпромбанк</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91 – 730 дней</t>
+          <t>от 1 дня</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -998,31 +998,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Газпромбанк</t>
+          <t>Банк ДОМ.РФ</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>24.3</v>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>24.1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>от 1 дня</t>
+          <t>91 – 1100 дней</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="G18" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>19</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="19">
@@ -1031,14 +1029,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Банк ДОМ.РФ</t>
+          <t>Банк Уралсиб</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24.3</v>
+        <v>22.23</v>
       </c>
       <c r="D19" t="n">
-        <v>24.1</v>
+        <v>24.98</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1046,14 +1044,14 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>24.3</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="20">
@@ -1062,18 +1060,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Банк Уралсиб</t>
+          <t>Кредит Европа Банк (Россия)</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.23</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>24.98</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91 – 1100 дней</t>
+          <t>91 – 730 дней</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1081,10 +1079,10 @@
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>24.98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -1093,29 +1091,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Кредит Европа Банк (Россия)</t>
+          <t>Сбербанк</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>91 – 730 дней</t>
+          <t>от 1 дня</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10000000</v>
+      </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -1124,31 +1124,31 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Сбербанк</t>
+          <t>Локо-Банк</t>
         </is>
       </c>
       <c r="C22" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>182 дня</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="H22" t="n">
         <v>18</v>
       </c>
-      <c r="D22" t="n">
-        <v>18</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>от 1 дня</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>18</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="23">
@@ -1948,18 +1948,18 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Локо-Банк</t>
+          <t>Норвик Банк</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>24.25</v>
+        <v>24.19</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>182 дня</t>
+          <t>183 дня</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -1969,10 +1969,10 @@
         <v>50000000</v>
       </c>
       <c r="H48" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I48" t="n">
-        <v>24.25</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="49">
@@ -1981,31 +1981,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Норвик Банк</t>
+          <t>Транскапиталбанк</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>24.19</v>
+        <v>24.5</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>183 дня</t>
+          <t>91 – 370 дней</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G49" t="n">
-        <v>50000000</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>24.19</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="50">
@@ -2014,7 +2012,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Транскапиталбанк</t>
+          <t>НС Банк</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2025,15 +2023,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>91 – 370 дней</t>
+          <t>100 – 200 дней</t>
         </is>
       </c>
       <c r="F50" t="n">
         <v>50000</v>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>5000000</v>
+      </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I50" t="n">
         <v>24.5</v>
@@ -2045,31 +2045,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>НС Банк</t>
+          <t>Примсоцбанк</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>100 – 200 дней</t>
+          <t>122 дня</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G51" t="n">
-        <v>5000000</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I51" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="52">
@@ -2078,18 +2076,18 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Примсоцбанк</t>
+          <t>Реалист Банк</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>122 дня</t>
+          <t>91 – 370 дней</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2097,10 +2095,10 @@
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I52" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="53">
@@ -2109,29 +2107,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Реалист Банк</t>
+          <t>Кубань Кредит</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>91 – 370 дней</t>
+          <t>366 дней</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I53" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
@@ -2140,7 +2138,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Кубань Кредит</t>
+          <t>ББР Банк</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2151,15 +2149,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>366 дней</t>
+          <t>730 – 1100 дней</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
+        <v>100000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>50000000</v>
+      </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I54" t="n">
         <v>24</v>
@@ -2171,31 +2171,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ББР Банк</t>
+          <t>Клюква</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>24</v>
+        <v>20.98</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>730 – 1100 дней</t>
+          <t>181 день</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G55" t="n">
-        <v>50000000</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>24</v>
+        <v>20.98</v>
       </c>
     </row>
     <row r="56">
@@ -2204,29 +2202,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Клюква</t>
+          <t>Россельхозбанк</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>20.98</v>
+        <v>24</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>181 день</t>
+          <t>91 – 1095 дней</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I56" t="n">
-        <v>20.98</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
@@ -2235,26 +2233,28 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Россельхозбанк</t>
+          <t>Банк «Санкт-Петербург»</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>24</v>
       </c>
       <c r="D57" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>91 – 1095 дней</t>
+          <t>91 – 181 дня</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
+        <v>10000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>500000</v>
+      </c>
       <c r="H57" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I57" t="n">
         <v>24</v>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Банк «Санкт-Петербург»</t>
+          <t>Александровский</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2277,17 +2277,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>91 – 181 дня</t>
+          <t>91 – 735 дней</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G58" t="n">
-        <v>500000</v>
+        <v>100000000</v>
       </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I58" t="n">
         <v>24</v>
@@ -2299,31 +2299,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Александровский</t>
+          <t>Пойдём!</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>24</v>
+        <v>14.4</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>91 – 735 дней</t>
+          <t>24 месяца</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G59" t="n">
-        <v>100000000</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>24</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="60">
@@ -2332,29 +2330,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Пойдём!</t>
+          <t>Еврофинанс Моснарбанк</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>14.43</v>
+        <v>24</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>24 месяца</t>
+          <t>1 – 12 месяцев</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I60" t="n">
-        <v>14.43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
@@ -2363,29 +2361,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Еврофинанс Моснарбанк</t>
+          <t>Международный финансовый клуб</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1 – 12 месяцев</t>
+          <t>3 – 24 месяцев</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="62">
@@ -2394,29 +2392,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Международный финансовый клуб</t>
+          <t>Ростфинанс</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>23.8</v>
+        <v>23.49</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3 – 24 месяцев</t>
+          <t>405 дней</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>23.8</v>
+        <v>23.49</v>
       </c>
     </row>
     <row r="63">
@@ -2425,29 +2423,31 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ростфинанс</t>
+          <t>Почта Банк</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>23.49</v>
+        <v>23.5</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>405 дней</t>
+          <t>91 – 275 дней</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G63" t="inlineStr"/>
+        <v>10000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1500000</v>
+      </c>
       <c r="H63" t="n">
         <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>23.49</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="64">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Почта Банк</t>
+          <t>Зираат Банк Москва</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2467,17 +2467,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>91 – 275 дней</t>
+          <t>31 – 1095 дней</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1500000</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>23.5</v>
@@ -2489,29 +2487,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Зираат Банк Москва</t>
+          <t>Банк БЖФ</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>23.5</v>
+        <v>9.17</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>31 – 1095 дней</t>
+          <t>550 дней</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I65" t="n">
-        <v>23.5</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="66">
@@ -2520,18 +2518,18 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Банк БЖФ</t>
+          <t>Генбанк</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>9.17</v>
+        <v>23.3</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>550 дней</t>
+          <t>31 – 1095 дней</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -2539,10 +2537,10 @@
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>9.17</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="67">
@@ -2551,26 +2549,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Генбанк</t>
+          <t>Внешфинбанк</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>23.3</v>
       </c>
       <c r="D67" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>31 – 1095 дней</t>
+          <t>92 – 500 дней</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I67" t="n">
         <v>23.3</v>
@@ -2582,29 +2580,31 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Внешфинбанк</t>
+          <t>МБ РУС Банк</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>23.3</v>
+        <v>17.69</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>92 – 500 дней</t>
+          <t>1098 дней</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G68" t="inlineStr"/>
+        <v>50000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>10000000</v>
+      </c>
       <c r="H68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>23.3</v>
+        <v>17.69</v>
       </c>
     </row>
     <row r="69">
@@ -2613,31 +2613,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>МБ РУС Банк</t>
+          <t>Акибанк</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17.69</v>
+        <v>23.25</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1098 дней</t>
+          <t>186 дней</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G69" t="n">
-        <v>10000000</v>
-      </c>
+        <v>3000000</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I69" t="n">
-        <v>17.69</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="70">
@@ -2646,29 +2644,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Акибанк</t>
+          <t>БКС Банк</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>23.25</v>
+        <v>23.2</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>186 дней</t>
+          <t>180 дней</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3000000</v>
+        <v>50000</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I70" t="n">
-        <v>23.25</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="71">
@@ -2677,18 +2675,18 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>БКС Банк</t>
+          <t>Таврический</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>180 дней</t>
+          <t>31 – 91 дня</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -2696,10 +2694,10 @@
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I71" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="72">
@@ -2708,29 +2706,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Таврический</t>
+          <t>Национальный Банк сбережений</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>31 – 91 дня</t>
+          <t>181 день</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I72" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
@@ -2739,7 +2737,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Национальный Банк сбережений</t>
+          <t>Энерготрансбанк</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -2750,15 +2748,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>181 день</t>
+          <t>61 – 365 дней</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I73" t="n">
         <v>23</v>
@@ -2770,7 +2768,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Энерготрансбанк</t>
+          <t>Мир Бизнес Банк</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -2781,15 +2779,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>61 – 365 дней</t>
+          <t>31 – 181 дня</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
         <v>23</v>
@@ -2801,29 +2799,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Мир Бизнес Банк</t>
+          <t>Промтрансбанк</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>23</v>
+        <v>10.86</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>31 – 181 дня</t>
+          <t>750 дней</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I75" t="n">
-        <v>23</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="76">
@@ -2832,29 +2830,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Промтрансбанк</t>
+          <t>Белгородсоцбанк</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>10.86</v>
+        <v>23</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>750 дней</t>
+          <t>181 день</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I76" t="n">
-        <v>10.86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
@@ -2863,7 +2861,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Белгородсоцбанк</t>
+          <t>Банк ВБРР</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2874,15 +2872,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>181 день</t>
+          <t>31 – 1096 дней</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I77" t="n">
         <v>23</v>
@@ -2894,7 +2892,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Банк ВБРР</t>
+          <t>Акцепт</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2905,15 +2903,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>31 – 1096 дней</t>
+          <t>120 – 181 дня</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>10000000</v>
+        <v>50000</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I78" t="n">
         <v>23</v>
@@ -2925,26 +2923,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Акцепт</t>
+          <t>Национальный стандарт</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>23</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>22.7</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>120 – 181 дня</t>
+          <t>31 – 360 дней</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I79" t="n">
         <v>23</v>
@@ -2956,29 +2954,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Национальный стандарт</t>
+          <t>Руснарбанк</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>23</v>
+        <v>22.57</v>
       </c>
       <c r="D80" t="n">
-        <v>22.7</v>
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>31 – 360 дней</t>
+          <t>400 дней</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I80" t="n">
-        <v>23</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="81">
@@ -2987,29 +2985,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Руснарбанк</t>
+          <t>ЦМРБанк</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>22.57</v>
+        <v>22.8</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>400 дней</t>
+          <t>91 – 367 дней</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>22.57</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="82">
@@ -3018,7 +3016,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ЦМРБанк</t>
+          <t>КБ Солидарность</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3029,15 +3027,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>91 – 367 дней</t>
+          <t>210 дней</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I82" t="n">
         <v>22.8</v>
@@ -3049,29 +3047,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>КБ Солидарность</t>
+          <t>Финстар Банк</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>22.8</v>
+        <v>14.43</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>210 дней</t>
+          <t>730 дней</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I83" t="n">
-        <v>22.8</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="84">
@@ -3080,29 +3078,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Финстар Банк</t>
+          <t>Новиком</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>14.43</v>
+        <v>22.7</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>730 дней</t>
+          <t>91 – 1100 дней</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>50000</v>
+        <v>3500000</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I84" t="n">
-        <v>14.43</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="85">
@@ -3111,29 +3109,31 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Новиком</t>
+          <t>Свой Банк</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>22.7</v>
+        <v>22.65</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>91 – 1100 дней</t>
+          <t>91 – 1095 дней</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3500000</v>
-      </c>
-      <c r="G85" t="inlineStr"/>
+        <v>30000</v>
+      </c>
+      <c r="G85" t="n">
+        <v>30000000</v>
+      </c>
       <c r="H85" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>22.7</v>
+        <v>22.65</v>
       </c>
     </row>
     <row r="86">
@@ -3142,31 +3142,31 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Свой Банк</t>
+          <t>Банк Синара</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>22.65</v>
+        <v>22.6</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>91 – 1095 дней</t>
+          <t>90 – 1080 дней</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G86" t="n">
         <v>30000000</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I86" t="n">
-        <v>22.65</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="87">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Банк Синара</t>
+          <t>Газэнергобанк</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3208,31 +3208,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Газэнергобанк</t>
+          <t>Муниципальный Камчатпрофитбанк</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>22.6</v>
+        <v>22.55</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>90 – 1080 дней</t>
+          <t>3 – 6 месяцев</t>
         </is>
       </c>
       <c r="F88" t="n">
         <v>10000</v>
       </c>
-      <c r="G88" t="n">
-        <v>30000000</v>
-      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I88" t="n">
-        <v>22.6</v>
+        <v>22.55</v>
       </c>
     </row>
     <row r="89">
@@ -3241,7 +3239,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Муниципальный Камчатпрофитбанк</t>
+          <t>Фора-Банк</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3252,15 +3250,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3 – 6 месяцев</t>
+          <t>31 д. - 2 лет</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I89" t="n">
         <v>22.55</v>
@@ -3272,29 +3270,31 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Фора-Банк</t>
+          <t>Экспобанк</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>22.55</v>
+        <v>22.51</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>31 д. - 2 лет</t>
+          <t>181 день</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
+        <v>3000000</v>
+      </c>
+      <c r="G90" t="n">
+        <v>100000000</v>
+      </c>
       <c r="H90" t="n">
         <v>7</v>
       </c>
       <c r="I90" t="n">
-        <v>22.55</v>
+        <v>22.51</v>
       </c>
     </row>
     <row r="91">
@@ -3303,31 +3303,31 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Экспобанк</t>
+          <t>Солид Банк</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>22.51</v>
+        <v>22.5</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>181 день</t>
+          <t>91 день</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3000000</v>
+        <v>30000</v>
       </c>
       <c r="G91" t="n">
-        <v>100000000</v>
+        <v>5000000</v>
       </c>
       <c r="H91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I91" t="n">
-        <v>22.51</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="92">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Солид Банк</t>
+          <t>Банк Глобус</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -3347,17 +3347,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>91 день</t>
+          <t>61 – 181 дня</t>
         </is>
       </c>
       <c r="F92" t="n">
         <v>30000</v>
       </c>
-      <c r="G92" t="n">
-        <v>5000000</v>
-      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I92" t="n">
         <v>22.5</v>
@@ -3369,7 +3367,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Банк Глобус</t>
+          <t>Приморье</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -3380,15 +3378,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>61 – 181 дня</t>
+          <t>31 – 1095 дней</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>30000</v>
+        <v>1000000</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I93" t="n">
         <v>22.5</v>
@@ -3400,7 +3398,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Приморье</t>
+          <t>Морской Банк</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -3411,15 +3409,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>31 – 1095 дней</t>
+          <t>91 – 367 дней</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1000000</v>
+        <v>30000</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I94" t="n">
         <v>22.5</v>
@@ -3431,7 +3429,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Морской Банк</t>
+          <t>Первый Инвестиционный Банк</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -3442,11 +3440,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>91 – 367 дней</t>
+          <t>270 – 365 дней</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>30000</v>
+        <v>5000000</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
@@ -3462,7 +3460,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Первый Инвестиционный Банк</t>
+          <t>Москоммерцбанк</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -3473,15 +3471,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>270 – 365 дней</t>
+          <t>31 – 730 дней</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>5000000</v>
+        <v>50000</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I96" t="n">
         <v>22.5</v>
@@ -3493,29 +3491,29 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Москоммерцбанк</t>
+          <t>Банк ЗЕНИТ</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>31 – 730 дней</t>
+          <t>181 – 367 дней</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
         <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
@@ -3524,7 +3522,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Банк ЗЕНИТ</t>
+          <t>РОСБАНК</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3535,15 +3533,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>181 – 367 дней</t>
+          <t>3 – 12 месяцев</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G98" t="inlineStr"/>
+        <v>15000</v>
+      </c>
+      <c r="G98" t="n">
+        <v>300000000</v>
+      </c>
       <c r="H98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
         <v>22</v>
@@ -3555,31 +3555,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>РОСБАНК</t>
+          <t>Живаго Банк</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>22</v>
+        <v>19.22</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3 – 12 месяцев</t>
+          <t>279 дней</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G99" t="n">
-        <v>300000000</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>22</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="100">
@@ -3588,29 +3586,29 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Живаго Банк</t>
+          <t>Алеф-Банк</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>19.22</v>
+        <v>22</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>279 дней</t>
+          <t>183 – 363 дней</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I100" t="n">
-        <v>19.22</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101">
@@ -3619,29 +3617,31 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Алеф-Банк</t>
+          <t>РОССИЯ</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>183 – 363 дней</t>
+          <t>367 – 1095 дней</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G101" t="inlineStr"/>
+        <v>100000</v>
+      </c>
+      <c r="G101" t="n">
+        <v>5000000</v>
+      </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I101" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="102">
@@ -3650,28 +3650,28 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>РОССИЯ</t>
+          <t>Росдорбанк</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>21.5</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>367 – 1095 дней</t>
+          <t>31 – 547 дней</t>
         </is>
       </c>
       <c r="F102" t="n">
         <v>100000</v>
       </c>
       <c r="G102" t="n">
-        <v>5000000</v>
+        <v>150000000</v>
       </c>
       <c r="H102" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I102" t="n">
         <v>21.5</v>
@@ -3683,31 +3683,29 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Росдорбанк</t>
+          <t>Ишбанк</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>21.5</v>
+        <v>21.25</v>
       </c>
       <c r="D103" t="n">
-        <v>21.3</v>
+        <v>0</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>31 – 547 дней</t>
+          <t>31 – 1097 дней</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G103" t="n">
-        <v>150000000</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I103" t="n">
-        <v>21.5</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="104">
@@ -3716,29 +3714,29 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ишбанк</t>
+          <t>Пересвет</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>21.25</v>
+        <v>21.15</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>31 – 1097 дней</t>
+          <t>91 – 366 дней</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>21.25</v>
+        <v>21.15</v>
       </c>
     </row>
     <row r="105">
@@ -3747,29 +3745,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Пересвет</t>
+          <t>Газтрансбанк</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>21.15</v>
+        <v>21</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>91 – 366 дней</t>
+          <t>181 день</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I105" t="n">
-        <v>21.15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
@@ -3778,7 +3776,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Газтрансбанк</t>
+          <t>Уральский Банк реконструкции и развития</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -3789,7 +3787,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>181 день</t>
+          <t>360 дней</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -3797,7 +3795,7 @@
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I106" t="n">
         <v>21</v>
@@ -3809,7 +3807,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Уральский Банк реконструкции и развития</t>
+          <t>НОКССБАНК</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -3820,15 +3818,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>360 дней</t>
+          <t>1095 дней</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>50000</v>
+        <v>10000000</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I107" t="n">
         <v>21</v>
@@ -3840,29 +3838,29 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>НОКССБАНК</t>
+          <t>Агророс</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>21</v>
+        <v>16.01</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1095 дней</t>
+          <t>12 месяцев</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>10000000</v>
+        <v>50000</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I108" t="n">
-        <v>21</v>
+        <v>16.01</v>
       </c>
     </row>
     <row r="109">
@@ -3871,29 +3869,29 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Агророс</t>
+          <t>Прио-Внешторгбанк</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>16.01</v>
+        <v>21</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>12 месяцев</t>
+          <t>300 дней</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I109" t="n">
-        <v>16.01</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110">
@@ -3902,7 +3900,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Прио-Внешторгбанк</t>
+          <t>Нацинвестпромбанк</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -3913,15 +3911,17 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>300 дней</t>
+          <t>1095 дней</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G110" t="inlineStr"/>
+        <v>1000000</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5000000</v>
+      </c>
       <c r="H110" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I110" t="n">
         <v>21</v>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Нацинвестпромбанк</t>
+          <t>СДМ-Банк</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -3944,17 +3944,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1095 дней</t>
+          <t>181 – 1097 дней</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="G111" t="n">
-        <v>5000000</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I111" t="n">
         <v>21</v>
@@ -3966,7 +3964,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>СДМ-Банк</t>
+          <t>Агропромкредит</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -3977,7 +3975,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>181 – 1097 дней</t>
+          <t>91 – 1100 дней</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -3985,7 +3983,7 @@
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I112" t="n">
         <v>21</v>
@@ -3997,7 +3995,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Агропромкредит</t>
+          <t>Евроальянс</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -4008,7 +4006,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>91 – 1100 дней</t>
+          <t>1096 дней</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -4016,7 +4014,7 @@
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I113" t="n">
         <v>21</v>
@@ -4028,26 +4026,26 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Евроальянс</t>
+          <t>Сбербанк</t>
         </is>
       </c>
       <c r="C114" t="n">
         <v>21</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1096 дней</t>
+          <t>1 – 36 месяцев</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I114" t="n">
         <v>21</v>
@@ -4059,29 +4057,29 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Сбербанк</t>
+          <t>Интерпрогрессбанк</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>21</v>
+        <v>22.61</v>
       </c>
       <c r="D115" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1 – 36 месяцев</t>
+          <t>367 дней</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>100000</v>
+        <v>5000000</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>21</v>
+        <v>22.61</v>
       </c>
     </row>
     <row r="116">
@@ -4090,29 +4088,29 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Интерпрогрессбанк</t>
+          <t>РНКБ</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>22.61</v>
+        <v>21</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>23.14</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>367 дней</t>
+          <t>91 – 1095 дней</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>5000000</v>
+        <v>1000</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I116" t="n">
-        <v>22.61</v>
+        <v>23.14</v>
       </c>
     </row>
     <row r="117">
@@ -4121,29 +4119,29 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>РНКБ</t>
+          <t>Кредит Европа Банк (Россия)</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="D117" t="n">
-        <v>23.14</v>
+        <v>0</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>91 – 1095 дней</t>
+          <t>31 – 1098 дней</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I117" t="n">
-        <v>23.14</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="118">
@@ -4152,29 +4150,29 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Кредит Европа Банк (Россия)</t>
+          <t>Углеметбанк</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>20.9</v>
+        <v>20.59</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>31 – 1098 дней</t>
+          <t>91 – 200 дней</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
         <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>20.9</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="119">
@@ -4183,29 +4181,29 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Углеметбанк</t>
+          <t>Далена</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>20.59</v>
+        <v>20.5</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>91 – 200 дней</t>
+          <t>181 день</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>5000</v>
+        <v>150000000</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
         <v>4</v>
       </c>
       <c r="I119" t="n">
-        <v>20.59</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="120">
@@ -4214,26 +4212,26 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Далена</t>
+          <t>Банк Казани</t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>20.5</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>181 день</t>
+          <t>367 дней</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>150000000</v>
+        <v>500000</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I120" t="n">
         <v>20.5</v>
@@ -4245,26 +4243,26 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Банк Казани</t>
+          <t>Национальный резервный Банк</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>20.5</v>
       </c>
       <c r="D121" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>367 дней</t>
+          <t>91 – 1100 дней</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I121" t="n">
         <v>20.5</v>
@@ -4276,7 +4274,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Национальный резервный Банк</t>
+          <t>Трансстройбанк</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -4287,15 +4285,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>91 – 1100 дней</t>
+          <t>365 дней</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>10000000</v>
+        <v>100000</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I122" t="n">
         <v>20.5</v>
@@ -4307,7 +4305,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Петербургский социальный коммерческий Банк</t>
+          <t>Космос</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -4318,15 +4316,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>90 дней</t>
+          <t>185 дней</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I123" t="n">
         <v>20.5</v>
@@ -4338,7 +4336,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Трансстройбанк</t>
+          <t>Агора</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -4349,7 +4347,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>365 дней</t>
+          <t>30 – 181 дня</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -4357,7 +4355,7 @@
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I124" t="n">
         <v>20.5</v>
@@ -4369,29 +4367,29 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Космос</t>
+          <t>Банк Раунд</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>185 дней</t>
+          <t>60 – 548 дней</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I125" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="126">
@@ -4400,29 +4398,29 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Агора</t>
+          <t>ПроБанк</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>20.5</v>
+        <v>20.34</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>30 – 181 дня</t>
+          <t>1 – 36 месяцев</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>100000</v>
+        <v>1</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
         <v>3</v>
       </c>
       <c r="I126" t="n">
-        <v>20.5</v>
+        <v>20.34</v>
       </c>
     </row>
     <row r="127">
@@ -4431,18 +4429,18 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Банк Раунд</t>
+          <t>Северный Народный Банк</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>20.4</v>
+        <v>20.25</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>60 – 548 дней</t>
+          <t>180 дней</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -4450,10 +4448,10 @@
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I127" t="n">
-        <v>20.4</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="128">
@@ -4462,29 +4460,29 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ПроБанк</t>
+          <t>Москва-Сити</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>20.34</v>
+        <v>20.2</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>1 – 36 месяцев</t>
+          <t>181 день</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>20.34</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="129">
@@ -4493,29 +4491,29 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Северный Народный Банк</t>
+          <t>Синко-Банк</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>20.25</v>
+        <v>20.1</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>180 дней</t>
+          <t>30 – 730 дней</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>20.25</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="130">
@@ -4524,29 +4522,29 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Москва-Сити</t>
+          <t>Крокус-Банк</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>20.2</v>
+        <v>20.05</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>181 день</t>
+          <t>180 дней</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I130" t="n">
-        <v>20.2</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="131">
@@ -4555,29 +4553,29 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Синко-Банк</t>
+          <t>МТИ Банк</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>30 – 730 дней</t>
+          <t>3 месяца</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1000000</v>
+        <v>50000000</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
         <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132">
@@ -4586,29 +4584,31 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Крокус-Банк</t>
+          <t>Тимер Банк</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>20.05</v>
+        <v>20</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>180 дней</t>
+          <t>от 1 дня</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G132" t="inlineStr"/>
+        <v>1000</v>
+      </c>
+      <c r="G132" t="n">
+        <v>10000000</v>
+      </c>
       <c r="H132" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I132" t="n">
-        <v>20.05</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>МТИ Банк</t>
+          <t>Финам</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -4628,15 +4628,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>3 месяца</t>
+          <t>31 – 731 дня</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>50000000</v>
+        <v>30000</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I133" t="n">
         <v>20</v>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Тимер Банк</t>
+          <t>Ноосфера</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -4659,17 +4659,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>от 1 дня</t>
+          <t>31 – 366 дней</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G134" t="n">
-        <v>10000000</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
         <v>20</v>
@@ -4681,7 +4679,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Финам</t>
+          <t>Развитие-столица</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -4692,15 +4690,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>31 – 731 дня</t>
+          <t>31 день</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>30000</v>
+        <v>50000000</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>20</v>
@@ -4712,26 +4710,26 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ноосфера</t>
+          <t>Москомбанк</t>
         </is>
       </c>
       <c r="C136" t="n">
         <v>20</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>31 – 366 дней</t>
+          <t>31 – 364 дней</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I136" t="n">
         <v>20</v>
@@ -4743,7 +4741,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Развитие-столица</t>
+          <t>Меткомбанк</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -4754,15 +4752,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>31 день</t>
+          <t>181 – 370 дней</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>50000000</v>
+        <v>100000</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I137" t="n">
         <v>20</v>
@@ -4774,26 +4772,26 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Москомбанк</t>
+          <t>Центрокредит</t>
         </is>
       </c>
       <c r="C138" t="n">
         <v>20</v>
       </c>
       <c r="D138" t="n">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>31 – 364 дней</t>
+          <t>31 – 370 дней</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>30000</v>
+        <v>10000000</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>20</v>
@@ -4805,29 +4803,31 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Меткомбанк</t>
+          <t>Банк Финсервис</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>181 – 370 дней</t>
+          <t>93 – 183 дней</t>
         </is>
       </c>
       <c r="F139" t="n">
         <v>100000</v>
       </c>
-      <c r="G139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>5000000</v>
+      </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I139" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="140">
@@ -4836,29 +4836,29 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Центрокредит</t>
+          <t>Инбанк</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>31 – 370 дней</t>
+          <t>31 – 1096 дней</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I140" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="141">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Банк Финсервис</t>
+          <t>Петербургский социальный коммерческий Банк</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -4878,17 +4878,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>93 – 183 дней</t>
+          <t>31 – 180 дней</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G141" t="n">
-        <v>5000000</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>19.5</v>
@@ -4900,29 +4898,31 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Инбанк</t>
+          <t>Капитал</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>31 – 1096 дней</t>
+          <t>31 – 364 дней</t>
         </is>
       </c>
       <c r="F142" t="n">
         <v>5000000</v>
       </c>
-      <c r="G142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>50000000</v>
+      </c>
       <c r="H142" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Капитал</t>
+          <t>Гута-Банк</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -4942,15 +4942,13 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>31 – 364 дней</t>
+          <t>7 дней</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="G143" t="n">
         <v>50000000</v>
       </c>
+      <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
         <v>2</v>
       </c>
@@ -4964,7 +4962,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Гута-Банк</t>
+          <t>ИК Банк</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -4975,15 +4973,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>31 – 93 дней</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>50000000</v>
+        <v>5000</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I144" t="n">
         <v>19</v>
@@ -4995,7 +4993,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ИК Банк</t>
+          <t>Тендер-Банк</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -5006,15 +5004,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>31 – 93 дней</t>
+          <t>90 дней</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>5000</v>
+        <v>3000000</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>19</v>
@@ -5026,7 +5024,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Тендер-Банк</t>
+          <t>Россита-Банк</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -5037,15 +5035,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>90 дней</t>
+          <t>30 – 365 дней</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>3000000</v>
+        <v>100000</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
         <v>19</v>
@@ -5057,7 +5055,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Россита-Банк</t>
+          <t>Банк РСИ</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -5068,15 +5066,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>30 – 365 дней</t>
+          <t>30 дней</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>100000</v>
+        <v>70000000</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>19</v>
@@ -5088,7 +5086,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Банк РСИ</t>
+          <t>Дружба</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -5099,15 +5097,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>30 дней</t>
+          <t>366 – 1096 дней</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>70000000</v>
+        <v>3000000</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I148" t="n">
         <v>19</v>
@@ -5119,7 +5117,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Дружба</t>
+          <t>Банк РМП</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -5130,15 +5128,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>366 – 1096 дней</t>
+          <t>31 – 365 дней</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>3000000</v>
+        <v>100000</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>19</v>
@@ -5150,29 +5148,31 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Банк РМП</t>
+          <t>ОТП Банк</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>31 – 365 дней</t>
+          <t>50 дней</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G150" t="inlineStr"/>
+        <v>1000</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1000000</v>
+      </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="151">
@@ -5181,31 +5181,29 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ОТП Банк</t>
+          <t>МБА-Москва</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>18.9</v>
+        <v>18.75</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>50 дней</t>
+          <t>90 – 365 дней</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1000000</v>
-      </c>
+        <v>5000000</v>
+      </c>
+      <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
-        <v>18.9</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="152">
@@ -5214,7 +5212,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>МБА-Москва</t>
+          <t>Новый век</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -5225,15 +5223,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>90 – 365 дней</t>
+          <t>31 – 180 дней</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5000000</v>
+        <v>50000</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>18.75</v>
@@ -5245,7 +5243,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Новый век</t>
+          <t>НК Банк</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -5256,11 +5254,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>31 – 180 дней</t>
+          <t>30 – 545 дней</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
@@ -5276,29 +5274,29 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>НК Банк</t>
+          <t>Мир привилегий</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>18.75</v>
+        <v>18.5</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>30 – 545 дней</t>
+          <t>185 – 370 дней</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I154" t="n">
-        <v>18.75</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="155">
@@ -5307,7 +5305,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Мир привилегий</t>
+          <t>Тольяттихимбанк</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -5318,15 +5316,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>185 – 370 дней</t>
+          <t>91 день</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I155" t="n">
         <v>18.5</v>
@@ -5338,29 +5336,29 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Тольяттихимбанк</t>
+          <t>Ланта-Банк</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>91 день</t>
+          <t>92 дня</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157">
@@ -5369,7 +5367,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Ланта-Банк</t>
+          <t>Социум-Банк</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -5380,15 +5378,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>92 дня</t>
+          <t>185 – 370 дней</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I157" t="n">
         <v>18</v>
@@ -5400,7 +5398,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Социум-Банк</t>
+          <t>НДБанк</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -5411,7 +5409,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>185 – 370 дней</t>
+          <t>91 – 360 дней</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -5419,7 +5417,7 @@
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
         <v>18</v>
@@ -5431,7 +5429,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>НДБанк</t>
+          <t>Русьуниверсалбанк</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -5442,11 +5440,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>91 – 360 дней</t>
+          <t>3 – 6 месяцев</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>50000</v>
+        <v>75000000</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
@@ -5462,7 +5460,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Русьуниверсалбанк</t>
+          <t>Автоторгбанк</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -5473,15 +5471,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>3 – 6 месяцев</t>
+          <t>181 – 367 дней</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>75000000</v>
+        <v>30000</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I160" t="n">
         <v>18</v>
@@ -5493,7 +5491,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Автоторгбанк</t>
+          <t>Держава</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -5504,11 +5502,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>181 – 367 дней</t>
+          <t>31 – 365 дней</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>30000</v>
+        <v>1</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
@@ -5524,29 +5522,29 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Держава</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>31 – 365 дней</t>
+          <t>31 – 367 дней</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
         <v>3</v>
       </c>
       <c r="I162" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="163">
@@ -5555,29 +5553,29 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Сургутнефтегазбанк</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>17.93</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>31 – 367 дней</t>
+          <t>31 – 181 дня</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I163" t="n">
-        <v>17.5</v>
+        <v>17.93</v>
       </c>
     </row>
     <row r="164">
@@ -5586,29 +5584,29 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Сургутнефтегазбанк</t>
+          <t>Сервис резерв</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="D164" t="n">
-        <v>17.93</v>
+        <v>0</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>31 – 181 дня</t>
+          <t>31 – 40 дней</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I164" t="n">
-        <v>17.93</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165">
@@ -5617,7 +5615,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Сервис резерв</t>
+          <t>Татсоцбанк</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -5628,15 +5626,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>31 – 40 дней</t>
+          <t>60 дней</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I165" t="n">
         <v>17</v>
@@ -5648,7 +5646,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Татсоцбанк</t>
+          <t>Славия</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -5659,15 +5657,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>60 дней</t>
+          <t>91 – 364 дней</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1000</v>
+        <v>700000</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
         <v>17</v>
@@ -5679,29 +5677,29 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Славия</t>
+          <t>Форштадт</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>17</v>
+        <v>15.97</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>91 – 364 дней</t>
+          <t>546 дней</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>700000</v>
+        <v>3000000</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I167" t="n">
-        <v>17</v>
+        <v>15.97</v>
       </c>
     </row>
     <row r="168">
@@ -5710,29 +5708,31 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Форштадт</t>
+          <t>Эс-Би-Ай Банк</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>15.97</v>
+        <v>16</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>546 дней</t>
+          <t>91 – 730 дней</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="G168" t="inlineStr"/>
+        <v>30000</v>
+      </c>
+      <c r="G168" t="n">
+        <v>30000000</v>
+      </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>15.97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Эс-Би-Ай Банк</t>
+          <t>Банк СГБ</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -5752,17 +5752,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>91 – 730 дней</t>
+          <t>от 1 дня</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G169" t="n">
-        <v>30000000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I169" t="n">
         <v>16</v>
@@ -5774,7 +5772,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Банк СГБ</t>
+          <t>Ури Банк</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -5785,15 +5783,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>от 1 дня</t>
+          <t>30 – 91 дня</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
         <v>16</v>
@@ -5805,7 +5803,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ури Банк</t>
+          <t>РБА</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -5816,15 +5814,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>30 – 91 дня</t>
+          <t>30 – 365 дней</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>16</v>
@@ -5836,29 +5834,29 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>РБА</t>
+          <t>РЕСО Кредит</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>30 – 365 дней</t>
+          <t>91 – 3650 дней</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173">
@@ -5867,29 +5865,29 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>РЕСО Кредит</t>
+          <t>Банк Интеза</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>91 – 3650 дней</t>
+          <t>91 – 731 дня</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
         <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="174">
@@ -5898,29 +5896,29 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Банк Интеза</t>
+          <t>Новый Московский Банк</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>91 – 731 дня</t>
+          <t>181 – 365 дней</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I174" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="175">
@@ -5929,29 +5927,29 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Новый Московский Банк</t>
+          <t>Промсельхозбанк</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>13.4</v>
+        <v>10</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>181 – 365 дней</t>
+          <t>91 – 181 дня</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
-        <v>13.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176">
@@ -5960,29 +5958,29 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Промсельхозбанк</t>
+          <t>Соколовский</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>91 – 181 дня</t>
+          <t>31 – 360 дней</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>50000</v>
+        <v>500001</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177">
@@ -5991,29 +5989,31 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Соколовский</t>
+          <t>Яндекс Банк</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>31 – 360 дней</t>
+          <t>от 1 дня</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>500001</v>
-      </c>
-      <c r="G177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G177" t="n">
+        <v>30000000</v>
+      </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178">
@@ -6022,28 +6022,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Яндекс Банк</t>
+          <t>Столичный кредит</t>
         </is>
       </c>
       <c r="C178" t="n">
         <v>8</v>
       </c>
       <c r="D178" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>от 1 дня</t>
+          <t>90 – 181 дня</t>
         </is>
       </c>
       <c r="F178" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="n">
         <v>1</v>
-      </c>
-      <c r="G178" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>8</v>
@@ -6055,7 +6053,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Столичный кредит</t>
+          <t>Bank of China</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -6066,15 +6064,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>90 – 181 дня</t>
+          <t>91 – 367 дней</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>50000</v>
+        <v>1000000</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
         <v>8</v>
@@ -6086,11 +6084,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Bank of China</t>
+          <t>Кремлевский</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -6101,14 +6099,14 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
         <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181">
@@ -6117,29 +6115,29 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Кремлевский</t>
+          <t>Аресбанк</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>91 – 367 дней</t>
+          <t>367 – 1101 дня</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
         <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="182">
@@ -6148,29 +6146,29 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Аресбанк</t>
+          <t>Российская финансовая корпорация</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>367 – 1101 дня</t>
+          <t>91 – 181 дня</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="183">
@@ -6179,7 +6177,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Российская финансовая корпорация</t>
+          <t>Спецстройбанк</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -6190,11 +6188,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>91 – 181 дня</t>
+          <t>30 – 1096 дней</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
@@ -6210,7 +6208,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Спецстройбанк</t>
+          <t>СМЛТ Банк</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -6221,13 +6219,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>30 – 1096 дней</t>
+          <t>91 – 367 дней</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="G184" t="inlineStr"/>
+        <v>150000</v>
+      </c>
+      <c r="G184" t="n">
+        <v>100000000</v>
+      </c>
       <c r="H184" t="n">
         <v>0</v>
       </c>
@@ -6241,31 +6241,29 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>СМЛТ Банк</t>
+          <t>Эко-инвест</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>91 – 367 дней</t>
+          <t>30 – 365 дней</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>150000</v>
-      </c>
-      <c r="G185" t="n">
-        <v>100000000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -6274,61 +6272,30 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Эко-инвест</t>
+          <t>ЮниКредит Банк</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>30 – 365 дней</t>
+          <t>91 день</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
-      </c>
-      <c r="G186" t="inlineStr"/>
+        <v>10000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>15000000</v>
+      </c>
       <c r="H186" t="n">
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>186</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>ЮниКредит Банк</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>2</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0</v>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>91 день</t>
-        </is>
-      </c>
-      <c r="F187" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G187" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/banks.xlsx
+++ b/data/banks.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -514,7 +514,7 @@
         <v>23.9</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="3">
@@ -547,7 +547,7 @@
         <v>23.5</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="4">
@@ -580,7 +580,7 @@
         <v>22.7</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="5">
@@ -613,7 +613,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="6">
@@ -646,7 +646,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="7">
@@ -679,7 +679,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="8">
@@ -710,7 +710,7 @@
         <v>24.13</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="9">
@@ -741,7 +741,7 @@
         <v>21.5</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="10">
@@ -774,7 +774,7 @@
         <v>23.35</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="11">
@@ -805,7 +805,7 @@
         <v>22.03</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="12">
@@ -836,7 +836,7 @@
         <v>25</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="13">
@@ -867,7 +867,7 @@
         <v>23.52</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="14">
@@ -900,7 +900,7 @@
         <v>22.4</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="15">
@@ -933,7 +933,7 @@
         <v>22.2</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="16">
@@ -964,7 +964,7 @@
         <v>19.5</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="17">
@@ -995,7 +995,7 @@
         <v>24</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="18">
@@ -1026,7 +1026,7 @@
         <v>23.7</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="19">
@@ -1057,7 +1057,7 @@
         <v>22.16</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="20">
@@ -1090,7 +1090,7 @@
         <v>23</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="21">
@@ -1123,7 +1123,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="22">
@@ -1154,7 +1154,7 @@
         <v>22.7</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="23">
@@ -1185,7 +1185,7 @@
         <v>21</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="24">
@@ -1218,7 +1218,7 @@
         <v>18</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="25">
@@ -1251,7 +1251,7 @@
         <v>30</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>22.74</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="27">
@@ -1313,7 +1313,7 @@
         <v>23.76</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="28">
@@ -1344,7 +1344,7 @@
         <v>23.6</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="29">
@@ -1375,7 +1375,7 @@
         <v>23.54</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="30">
@@ -1408,7 +1408,7 @@
         <v>23</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="31">
@@ -1441,7 +1441,7 @@
         <v>23</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="32">
@@ -1472,7 +1472,7 @@
         <v>23</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="33">
@@ -1503,7 +1503,7 @@
         <v>23</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="34">
@@ -1536,7 +1536,7 @@
         <v>22.7</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="35">
@@ -1567,7 +1567,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="36">
@@ -1598,7 +1598,7 @@
         <v>22.3</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="37">
@@ -1629,7 +1629,7 @@
         <v>23.3</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="38">
@@ -1662,7 +1662,7 @@
         <v>21.25</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="39">
@@ -1695,7 +1695,7 @@
         <v>20.15</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="40">
@@ -1726,7 +1726,7 @@
         <v>19</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="41">
@@ -1757,7 +1757,7 @@
         <v>18</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="42">
@@ -1788,7 +1788,7 @@
         <v>16</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="43">
@@ -1819,7 +1819,7 @@
         <v>22.83</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="44">
@@ -1850,7 +1850,7 @@
         <v>20.06</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="45">
@@ -1883,7 +1883,7 @@
         <v>24</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="46">
@@ -1914,7 +1914,7 @@
         <v>25</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="47">
@@ -1945,7 +1945,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="48">
@@ -1978,7 +1978,7 @@
         <v>25</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="49">
@@ -2009,7 +2009,7 @@
         <v>15.1</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="50">
@@ -2040,7 +2040,7 @@
         <v>25</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="51">
@@ -2071,7 +2071,7 @@
         <v>25</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="52">
@@ -2104,7 +2104,7 @@
         <v>24.19</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="53">
@@ -2135,7 +2135,7 @@
         <v>24.5</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="54">
@@ -2166,7 +2166,7 @@
         <v>24.3</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="55">
@@ -2197,7 +2197,7 @@
         <v>24.05</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="56">
@@ -2228,7 +2228,7 @@
         <v>24</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="57">
@@ -2259,7 +2259,7 @@
         <v>18.16</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="58">
@@ -2292,7 +2292,7 @@
         <v>24</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="59">
@@ -2323,7 +2323,7 @@
         <v>20.98</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="60">
@@ -2354,7 +2354,7 @@
         <v>24</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="61">
@@ -2387,7 +2387,7 @@
         <v>24</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="62">
@@ -2418,7 +2418,7 @@
         <v>14.31</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="63">
@@ -2449,7 +2449,7 @@
         <v>24</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="64">
@@ -2480,7 +2480,7 @@
         <v>23.8</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="65">
@@ -2511,7 +2511,7 @@
         <v>23.49</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="66">
@@ -2544,7 +2544,7 @@
         <v>23.5</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="67">
@@ -2575,7 +2575,7 @@
         <v>23.5</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="68">
@@ -2606,7 +2606,7 @@
         <v>9.17</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="69">
@@ -2637,7 +2637,7 @@
         <v>23.3</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="70">
@@ -2668,7 +2668,7 @@
         <v>23.3</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="71">
@@ -2701,7 +2701,7 @@
         <v>17.69</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="72">
@@ -2732,7 +2732,7 @@
         <v>23.25</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="73">
@@ -2763,7 +2763,7 @@
         <v>23</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="74">
@@ -2794,7 +2794,7 @@
         <v>23</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="75">
@@ -2825,7 +2825,7 @@
         <v>23</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="76">
@@ -2856,7 +2856,7 @@
         <v>23</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="77">
@@ -2887,7 +2887,7 @@
         <v>23</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="78">
@@ -2918,7 +2918,7 @@
         <v>23</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="79">
@@ -2949,7 +2949,7 @@
         <v>23</v>
       </c>
       <c r="I79" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="80">
@@ -2980,7 +2980,7 @@
         <v>22.58</v>
       </c>
       <c r="I80" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="81">
@@ -3013,7 +3013,7 @@
         <v>22.89</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="82">
@@ -3044,7 +3044,7 @@
         <v>22.8</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="83">
@@ -3075,7 +3075,7 @@
         <v>22.8</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="84">
@@ -3106,7 +3106,7 @@
         <v>14.43</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="85">
@@ -3137,7 +3137,7 @@
         <v>22.7</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="86">
@@ -3170,7 +3170,7 @@
         <v>22.6</v>
       </c>
       <c r="I86" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="87">
@@ -3201,7 +3201,7 @@
         <v>22.55</v>
       </c>
       <c r="I87" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="88">
@@ -3232,7 +3232,7 @@
         <v>22.55</v>
       </c>
       <c r="I88" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="89">
@@ -3265,7 +3265,7 @@
         <v>22.51</v>
       </c>
       <c r="I89" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="90">
@@ -3298,7 +3298,7 @@
         <v>22.5</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="91">
@@ -3329,7 +3329,7 @@
         <v>22.5</v>
       </c>
       <c r="I91" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="92">
@@ -3360,7 +3360,7 @@
         <v>22.5</v>
       </c>
       <c r="I92" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="93">
@@ -3391,7 +3391,7 @@
         <v>22.5</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="94">
@@ -3422,7 +3422,7 @@
         <v>22.5</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="95">
@@ -3455,7 +3455,7 @@
         <v>22.5</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="96">
@@ -3486,7 +3486,7 @@
         <v>22.5</v>
       </c>
       <c r="I96" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="97">
@@ -3519,7 +3519,7 @@
         <v>22</v>
       </c>
       <c r="I97" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="98">
@@ -3550,7 +3550,7 @@
         <v>22</v>
       </c>
       <c r="I98" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="99">
@@ -3583,7 +3583,7 @@
         <v>22</v>
       </c>
       <c r="I99" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="100">
@@ -3614,7 +3614,7 @@
         <v>19.22</v>
       </c>
       <c r="I100" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="101">
@@ -3645,7 +3645,7 @@
         <v>22</v>
       </c>
       <c r="I101" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="102">
@@ -3676,7 +3676,7 @@
         <v>24.36</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="103">
@@ -3707,7 +3707,7 @@
         <v>22</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="104">
@@ -3740,7 +3740,7 @@
         <v>21.5</v>
       </c>
       <c r="I104" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="105">
@@ -3773,7 +3773,7 @@
         <v>21.5</v>
       </c>
       <c r="I105" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="106">
@@ -3804,7 +3804,7 @@
         <v>21.25</v>
       </c>
       <c r="I106" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="107">
@@ -3835,7 +3835,7 @@
         <v>21.15</v>
       </c>
       <c r="I107" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="108">
@@ -3866,7 +3866,7 @@
         <v>21</v>
       </c>
       <c r="I108" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="109">
@@ -3897,7 +3897,7 @@
         <v>21</v>
       </c>
       <c r="I109" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="110">
@@ -3928,7 +3928,7 @@
         <v>21</v>
       </c>
       <c r="I110" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="111">
@@ -3959,7 +3959,7 @@
         <v>21</v>
       </c>
       <c r="I111" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="112">
@@ -3990,7 +3990,7 @@
         <v>21</v>
       </c>
       <c r="I112" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="113">
@@ -4021,7 +4021,7 @@
         <v>16.01</v>
       </c>
       <c r="I113" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="114">
@@ -4054,7 +4054,7 @@
         <v>21</v>
       </c>
       <c r="I114" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="115">
@@ -4085,7 +4085,7 @@
         <v>21</v>
       </c>
       <c r="I115" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="116">
@@ -4116,7 +4116,7 @@
         <v>21</v>
       </c>
       <c r="I116" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="117">
@@ -4147,7 +4147,7 @@
         <v>21</v>
       </c>
       <c r="I117" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="118">
@@ -4178,7 +4178,7 @@
         <v>21</v>
       </c>
       <c r="I118" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="119">
@@ -4209,7 +4209,7 @@
         <v>22.61</v>
       </c>
       <c r="I119" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="120">
@@ -4240,7 +4240,7 @@
         <v>20.9</v>
       </c>
       <c r="I120" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="121">
@@ -4271,7 +4271,7 @@
         <v>20.59</v>
       </c>
       <c r="I121" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="122">
@@ -4302,7 +4302,7 @@
         <v>20.5</v>
       </c>
       <c r="I122" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="123">
@@ -4333,7 +4333,7 @@
         <v>20.5</v>
       </c>
       <c r="I123" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="124">
@@ -4364,7 +4364,7 @@
         <v>20.5</v>
       </c>
       <c r="I124" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="125">
@@ -4395,7 +4395,7 @@
         <v>20.5</v>
       </c>
       <c r="I125" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="126">
@@ -4426,7 +4426,7 @@
         <v>20.5</v>
       </c>
       <c r="I126" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="127">
@@ -4457,7 +4457,7 @@
         <v>20.4</v>
       </c>
       <c r="I127" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="128">
@@ -4488,7 +4488,7 @@
         <v>20.34</v>
       </c>
       <c r="I128" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="129">
@@ -4519,7 +4519,7 @@
         <v>20.25</v>
       </c>
       <c r="I129" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="130">
@@ -4550,7 +4550,7 @@
         <v>20.2</v>
       </c>
       <c r="I130" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="131">
@@ -4581,7 +4581,7 @@
         <v>20.1</v>
       </c>
       <c r="I131" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="132">
@@ -4612,7 +4612,7 @@
         <v>20</v>
       </c>
       <c r="I132" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="133">
@@ -4645,7 +4645,7 @@
         <v>20</v>
       </c>
       <c r="I133" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="134">
@@ -4676,7 +4676,7 @@
         <v>20</v>
       </c>
       <c r="I134" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="135">
@@ -4707,7 +4707,7 @@
         <v>20</v>
       </c>
       <c r="I135" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="136">
@@ -4738,7 +4738,7 @@
         <v>20</v>
       </c>
       <c r="I136" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="137">
@@ -4769,7 +4769,7 @@
         <v>20</v>
       </c>
       <c r="I137" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="138">
@@ -4800,7 +4800,7 @@
         <v>20</v>
       </c>
       <c r="I138" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="139">
@@ -4831,7 +4831,7 @@
         <v>20</v>
       </c>
       <c r="I139" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="140">
@@ -4862,7 +4862,7 @@
         <v>19.7</v>
       </c>
       <c r="I140" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="141">
@@ -4895,7 +4895,7 @@
         <v>19.5</v>
       </c>
       <c r="I141" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="142">
@@ -4926,7 +4926,7 @@
         <v>19.5</v>
       </c>
       <c r="I142" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="143">
@@ -4957,7 +4957,7 @@
         <v>19.5</v>
       </c>
       <c r="I143" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="144">
@@ -4990,7 +4990,7 @@
         <v>19</v>
       </c>
       <c r="I144" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="145">
@@ -5021,7 +5021,7 @@
         <v>19</v>
       </c>
       <c r="I145" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="146">
@@ -5052,7 +5052,7 @@
         <v>19</v>
       </c>
       <c r="I146" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="147">
@@ -5083,7 +5083,7 @@
         <v>19</v>
       </c>
       <c r="I147" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="148">
@@ -5114,7 +5114,7 @@
         <v>19</v>
       </c>
       <c r="I148" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="149">
@@ -5145,7 +5145,7 @@
         <v>19</v>
       </c>
       <c r="I149" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="150">
@@ -5176,7 +5176,7 @@
         <v>19</v>
       </c>
       <c r="I150" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="151">
@@ -5207,7 +5207,7 @@
         <v>19</v>
       </c>
       <c r="I151" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="152">
@@ -5240,7 +5240,7 @@
         <v>18.9</v>
       </c>
       <c r="I152" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="153">
@@ -5271,7 +5271,7 @@
         <v>18.75</v>
       </c>
       <c r="I153" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="154">
@@ -5302,7 +5302,7 @@
         <v>18.75</v>
       </c>
       <c r="I154" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="155">
@@ -5333,7 +5333,7 @@
         <v>18.75</v>
       </c>
       <c r="I155" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="156">
@@ -5364,7 +5364,7 @@
         <v>18.5</v>
       </c>
       <c r="I156" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="157">
@@ -5395,7 +5395,7 @@
         <v>18.5</v>
       </c>
       <c r="I157" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="158">
@@ -5426,7 +5426,7 @@
         <v>18</v>
       </c>
       <c r="I158" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="159">
@@ -5457,7 +5457,7 @@
         <v>18</v>
       </c>
       <c r="I159" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="160">
@@ -5488,7 +5488,7 @@
         <v>18</v>
       </c>
       <c r="I160" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="161">
@@ -5519,7 +5519,7 @@
         <v>18</v>
       </c>
       <c r="I161" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="162">
@@ -5550,7 +5550,7 @@
         <v>18</v>
       </c>
       <c r="I162" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="163">
@@ -5581,7 +5581,7 @@
         <v>18</v>
       </c>
       <c r="I163" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="164">
@@ -5612,7 +5612,7 @@
         <v>17.5</v>
       </c>
       <c r="I164" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="165">
@@ -5643,7 +5643,7 @@
         <v>17.93</v>
       </c>
       <c r="I165" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="166">
@@ -5674,7 +5674,7 @@
         <v>17</v>
       </c>
       <c r="I166" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="167">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="I167" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="168">
@@ -5736,7 +5736,7 @@
         <v>17</v>
       </c>
       <c r="I168" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="169">
@@ -5767,7 +5767,7 @@
         <v>15.97</v>
       </c>
       <c r="I169" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="170">
@@ -5800,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="I170" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="171">
@@ -5831,7 +5831,7 @@
         <v>16</v>
       </c>
       <c r="I171" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="172">
@@ -5862,7 +5862,7 @@
         <v>16</v>
       </c>
       <c r="I172" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="173">
@@ -5893,7 +5893,7 @@
         <v>16</v>
       </c>
       <c r="I173" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="174">
@@ -5924,7 +5924,7 @@
         <v>15</v>
       </c>
       <c r="I174" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="175">
@@ -5955,7 +5955,7 @@
         <v>13.5</v>
       </c>
       <c r="I175" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="176">
@@ -5986,7 +5986,7 @@
         <v>13.4</v>
       </c>
       <c r="I176" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="177">
@@ -6017,7 +6017,7 @@
         <v>10</v>
       </c>
       <c r="I177" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="178">
@@ -6048,7 +6048,7 @@
         <v>9</v>
       </c>
       <c r="I178" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="179">
@@ -6081,7 +6081,7 @@
         <v>8</v>
       </c>
       <c r="I179" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="180">
@@ -6112,7 +6112,7 @@
         <v>8</v>
       </c>
       <c r="I180" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="181">
@@ -6143,7 +6143,7 @@
         <v>8</v>
       </c>
       <c r="I181" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="182">
@@ -6174,7 +6174,7 @@
         <v>7</v>
       </c>
       <c r="I182" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="183">
@@ -6205,7 +6205,7 @@
         <v>6.5</v>
       </c>
       <c r="I183" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="184">
@@ -6236,7 +6236,7 @@
         <v>4.5</v>
       </c>
       <c r="I184" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="185">
@@ -6267,7 +6267,7 @@
         <v>4.5</v>
       </c>
       <c r="I185" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="186">
@@ -6300,7 +6300,7 @@
         <v>4.5</v>
       </c>
       <c r="I186" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="187">
@@ -6331,7 +6331,7 @@
         <v>3</v>
       </c>
       <c r="I187" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
     <row r="188">
@@ -6364,7 +6364,7 @@
         <v>2</v>
       </c>
       <c r="I188" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413774473</v>
       </c>
     </row>
   </sheetData>
